--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,16 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A900BDB8-2C0E-4D60-B9ED-0B4F7F0C588D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C45BA928-FA3B-46A0-BDC8-3AF19B8B6CF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$B$44</definedName>
-  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -39,13 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
-  <si>
-    <t>饭总</t>
-  </si>
-  <si>
-    <t>http://饭太硬.top/tv</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="301">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -65,12 +58,6 @@
     <t>http://xhww.fun:63/小米/DEMO.json</t>
   </si>
   <si>
-    <t>🔘莱尼</t>
-  </si>
-  <si>
-    <t>https://tvbox.cainisi.cf</t>
-  </si>
-  <si>
     <t>🔘骚零</t>
   </si>
   <si>
@@ -83,12 +70,6 @@
     <t>http://cdn.qiaoji8.com/tvbox.json</t>
   </si>
   <si>
-    <t>🔘星辰</t>
-  </si>
-  <si>
-    <t>http://8.210.232.168/xc.json</t>
-  </si>
-  <si>
     <t>🔘江雅</t>
   </si>
   <si>
@@ -149,83 +130,9 @@
     <t>https://raw.liucn.cc/box/m.json</t>
   </si>
   <si>
-    <t>🔘运输</t>
-  </si>
-  <si>
-    <t>https://weixine.net/ysc.json</t>
-  </si>
-  <si>
     <t>http://52bsj.vip:98/wuai</t>
   </si>
   <si>
-    <t>http://itvbox.cc/tvbox/云星日记/1.m3u8</t>
-  </si>
-  <si>
-    <t>Name</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Url</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">最牛逼接口 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【爱TV自营接口】单仓 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【爱TV自营接口】多仓 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【元老库】收集市面运行时间最长接口合集 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【讴歌多仓】 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【七星多仓】 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【心动仓库】 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【宝盒多仓】 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【云星多仓】 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">【多多多仓】 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">茄子库 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">欧歌 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">儿童教育 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">老年戏剧 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">讴歌4K(小白勿用) </t>
-  </si>
-  <si>
-    <t xml:space="preserve">肥猫 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">天天开心 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">荷城茶秀 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">小胡 </t>
-  </si>
-  <si>
     <t>https://pan.shangui.cc/f/lmP0Hk/mao4.txt</t>
   </si>
   <si>
@@ -281,23 +188,1261 @@
   </si>
   <si>
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/tvbox/0326.json</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新蚂蚁窝仓库</t>
+  </si>
+  <si>
+    <t>月光影视多线路</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.ywsj.cf/upload/2023/10/yyzq4k.json</t>
+  </si>
+  <si>
+    <t>肥猫专用</t>
+  </si>
+  <si>
+    <t>http://我不是.肥猫.love:63</t>
+  </si>
+  <si>
+    <t>神仙影视</t>
+  </si>
+  <si>
+    <t>小胡</t>
+  </si>
+  <si>
+    <t>太阳</t>
+  </si>
+  <si>
+    <t>多多专线</t>
+  </si>
+  <si>
+    <t>小盒酷玩</t>
+  </si>
+  <si>
+    <t>http://小盒酷玩.fun:66/</t>
+  </si>
+  <si>
+    <t>夜猫子</t>
+  </si>
+  <si>
+    <t>https://download.kstore.space/download/3313/app/ymzn</t>
+  </si>
+  <si>
+    <t>影探线路</t>
+  </si>
+  <si>
+    <t>业余专源</t>
+  </si>
+  <si>
+    <t>运输车加速</t>
+  </si>
+  <si>
+    <t>春盈</t>
+  </si>
+  <si>
+    <t>猫技</t>
+  </si>
+  <si>
+    <t>魔饭单仓</t>
+  </si>
+  <si>
+    <t>蓝色单仓</t>
+  </si>
+  <si>
+    <t>荷城茶秀</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://itvbox.cc/tvbox/云星日记/1.m3u8</t>
+  </si>
+  <si>
+    <t>https://s2.pub/xmbjmxdc</t>
+  </si>
+  <si>
+    <t>https://agit.ai/cyl518/yl/raw/branch/master/pytv.json</t>
+  </si>
+  <si>
+    <t>http://52bsj.vip:98/cl</t>
+  </si>
+  <si>
+    <t>最牛逼接口</t>
+  </si>
+  <si>
+    <t>【爱TV自营接口】单仓</t>
+  </si>
+  <si>
+    <t>【爱TV自营接口】多仓</t>
+  </si>
+  <si>
+    <t>【元老库】收集市面运行时间最长接口合集</t>
+  </si>
+  <si>
+    <t>【讴歌多仓】</t>
+  </si>
+  <si>
+    <t>【七星多仓】</t>
+  </si>
+  <si>
+    <t>【心动仓库】</t>
+  </si>
+  <si>
+    <t>【宝盒多仓】</t>
+  </si>
+  <si>
+    <t>【云星多仓】</t>
+  </si>
+  <si>
+    <t>【多多多仓】</t>
+  </si>
+  <si>
+    <t>茄子库</t>
+  </si>
+  <si>
+    <t>欧歌</t>
+  </si>
+  <si>
+    <t>儿童教育</t>
+  </si>
+  <si>
+    <t>老年戏剧</t>
+  </si>
+  <si>
+    <t>讴歌4K(小白勿用)</t>
+  </si>
+  <si>
+    <t>肥猫</t>
+  </si>
+  <si>
+    <t>天天开心</t>
+  </si>
+  <si>
+    <t>https://agit.ai/pinghui/xinghe/raw/branch/master/mayicang.txt</t>
+  </si>
+  <si>
+    <t>https://www.ywsj.cf/upload/2023/10/yyzq4k.json</t>
+  </si>
+  <si>
+    <t>https://gitee.com/shenxian2023/web/raw/master/sx.json</t>
+  </si>
+  <si>
+    <t>http://www.xzam.cn/xiaohu</t>
+  </si>
+  <si>
+    <t>https://tvbox.meitufu.com/TVBox/tv.json</t>
+  </si>
+  <si>
+    <t>https://yydsys.top/duo</t>
+  </si>
+  <si>
+    <t>https://jihulab.com/zhulr7765/tvbox/-/raw/main/tv.txt?ref_type=heads</t>
+  </si>
+  <si>
+    <t>https://raw.gitmirror.com/yydfys/yydf/main/yydf/yydf.json</t>
+  </si>
+  <si>
+    <t>https://cf.weixine.net/ysc.json</t>
+  </si>
+  <si>
+    <t>月光宝盒</t>
+  </si>
+  <si>
+    <t>https://wds.ecsxs.com/230989.json</t>
+  </si>
+  <si>
+    <t>https://agit.ai/ddx/nmys/raw/branch/master/feimao.json</t>
+  </si>
+  <si>
+    <t>熊猫不叫猫</t>
+  </si>
+  <si>
+    <t>胖鸭</t>
+  </si>
+  <si>
+    <t>https://jihulab.com/yw88075/tvbox/-/raw/main/dr/js.json</t>
+  </si>
+  <si>
+    <t>https://atomgit.com/xghvrf/Xvbjffc/raw/master/xbfbe.json</t>
+  </si>
+  <si>
+    <t>http://rihou.vip:88/荷城茶秀</t>
+  </si>
+  <si>
+    <t xml:space="preserve">接口线路 南风线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://agit.ai/Yoursmile7/TVBox/raw/branch/master/XC.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">喵影视线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://meowtv.cn/tv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">道长线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://pastebin.com/raw/5NHaxyGR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">运输车线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://svip.weixine.net:88/uploads/itvbox/svip.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">肥猫线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://小白.love/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">小米线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://xhww.fun:63/小米/DEMO.json</t>
+  </si>
+  <si>
+    <t>多多线路</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://atomgit.com/iduo/DDBox/raw/master/duo.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天天开心线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://rihou.vip:55/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">天天开心云星日记线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">俊佬线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://home.jundie.top:81/top98.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">荷城茶秀线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://rihou.cc:88/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">潇洒线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://cn.kstore.space/download/2863/01.txt</t>
+  </si>
+  <si>
+    <t>小胡线路</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://xiaohu.xzam.cn/xiaohu</t>
+  </si>
+  <si>
+    <t xml:space="preserve">高天流云线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://ghproxy.net/https://raw.githubusercontent.com/gaotianliuyun/gao/master/js.jsonkvymin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://agit.ai/kvymin/TVBox/raw/branch/master/Pandora.jsonabc</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://agit.ai/n/b/raw/branch/a/b/c.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">吾爱线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://52pan.top:81/api/v3/file/get/174964/吾爱评测.m3u?sign=rPssLoffquDXszCARt6UNF8MobSa1FA27XomzOluJBY%3D%3A0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">业余打发线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> http://yydf.540734621.xyz/yydf/yydf/bd/yydf.jsonzzz1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://agit.ai/mmmgit/tvbox/raw/branch/main/zzz1.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胖鸭线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://agit.ai/cyl518/yl/raw/branch/master/ml.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">胖鸭线路1 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://agit.ai/cyl518/yl/raw/branch/master/pytv.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">恋影线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://www.lianyingtv.com/fast/fast</t>
+  </si>
+  <si>
+    <t xml:space="preserve">月光影视多线路 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">4K接口 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://gh.con.sh/https://raw.githubusercontent.com/xmbjm/vip4K/main/4Kvip.json</t>
+  </si>
+  <si>
+    <t xml:space="preserve">拾光 </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> https://gh.con.sh/https://raw.githubusercontent.com/xmbjm/xmbjmjk/main/xmbjm.json</t>
+  </si>
+  <si>
+    <t>https://ghproxy.com/https://raw.githubusercontent.com/mengzehe/tvbox/main/自用多仓</t>
+  </si>
+  <si>
+    <t>o欧歌多仓</t>
+  </si>
+  <si>
+    <t>https://o.nxog.top/nxog/nxog1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>欧歌单仓</t>
+  </si>
+  <si>
+    <t>https://o.nxog.top/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>欧歌多仓</t>
+  </si>
+  <si>
+    <t>https://w.nxog.top/nxog/nxog1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>https://w.nxog.top/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>https://nxog.eu.org/nxog/nxog1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>https://nxog.eu.org/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>恒星仓库</t>
+  </si>
+  <si>
+    <t>https://atomgit.com/hengxing/hx/raw/master/hxzck.txt</t>
+  </si>
+  <si>
+    <t>挺好</t>
+  </si>
+  <si>
+    <t>https://ghproxy.net/https://raw.githubusercontent.com/ZTHA000/tvbox/main/gyck.json</t>
+  </si>
+  <si>
+    <t>春盈天下</t>
+  </si>
+  <si>
+    <t>高天流云</t>
+  </si>
+  <si>
+    <t>https://ghproxy.com/https://raw.githubusercontent.com/gaotianliuyun/gao/master/js.json</t>
+  </si>
+  <si>
+    <t>万达影视</t>
+  </si>
+  <si>
+    <t>http://sinopacifichk.com/box/56.txt</t>
+  </si>
+  <si>
+    <t>心魔线路</t>
+  </si>
+  <si>
+    <t>https://jihulab.com/yw88075/tvbox//raw/main/dr/js.json</t>
+  </si>
+  <si>
+    <t>苹果接口</t>
+  </si>
+  <si>
+    <t>https://la.kstore.space/download/3376/xpg.txt</t>
+  </si>
+  <si>
+    <t>https://agit.ai/XiaoYiChaHang/xxzb/raw/branch/master/ysj.json</t>
+  </si>
+  <si>
+    <t>于氏影业</t>
+  </si>
+  <si>
+    <t>https://agit.ai/sejinan/app/raw/branch/box/yu</t>
+  </si>
+  <si>
+    <t>本多仓仓库</t>
+  </si>
+  <si>
+    <t>刘备精选单仓</t>
+  </si>
+  <si>
+    <t>https://raw.liucn.cc/box/dc.txt</t>
+  </si>
+  <si>
+    <t>超级仓库单仓</t>
+  </si>
+  <si>
+    <t>https://www.agit.ai/hu/hcr/raw/branch/master/99668.txt</t>
+  </si>
+  <si>
+    <t>业余日后单仓</t>
+  </si>
+  <si>
+    <t>https://ghproxy.com/https://raw.githubusercontent.com/yyfxz/yyrh/main/fxz.json</t>
+  </si>
+  <si>
+    <t>业余线路</t>
+  </si>
+  <si>
+    <t>http://yydf.540734621.xyz/yydf/yydf/yydf.json</t>
+  </si>
+  <si>
+    <t>业余打发</t>
+  </si>
+  <si>
+    <t>https://ghproxy.com/https://raw.githubusercontent.com/yydfys/yydf/main/yydf/yydfjk.json</t>
+  </si>
+  <si>
+    <t>砂锅多仓</t>
+  </si>
+  <si>
+    <t>https://atomgit.com/66dashun/xiazheng/raw/master/d.json</t>
+  </si>
+  <si>
+    <t>西夏仓</t>
+  </si>
+  <si>
+    <t>http://wl.iptv8.top/wl/a/1706600423.txt</t>
+  </si>
+  <si>
+    <t>肥猫线路</t>
+  </si>
+  <si>
+    <t>https://肥猫.live/</t>
+  </si>
+  <si>
+    <t>砂锅单仓</t>
+  </si>
+  <si>
+    <t>https://agit.ai/ddx/TVBox/raw/branch/master/d.json</t>
+  </si>
+  <si>
+    <t>七星单线路</t>
+  </si>
+  <si>
+    <t>https://tvkj888.cn/tvys/svip.json</t>
+  </si>
+  <si>
+    <t>多线路</t>
+  </si>
+  <si>
+    <t>https://qixing.myhkw.com/DC.txt</t>
+  </si>
+  <si>
+    <t>天微多线路</t>
+  </si>
+  <si>
+    <t>单线路</t>
+  </si>
+  <si>
+    <t>https://qixing.myhkw.com/tianwei/svip.json</t>
+  </si>
+  <si>
+    <t>天微多仓接口</t>
+  </si>
+  <si>
+    <t>http://tvkj.top/DC.txt</t>
+  </si>
+  <si>
+    <t>天微影视VIP线</t>
+  </si>
+  <si>
+    <t>春盈线路单线路</t>
+  </si>
+  <si>
+    <t>http://39.101.135.137:8686</t>
+  </si>
+  <si>
+    <t>月光宝盒多仓配置</t>
+  </si>
+  <si>
+    <t>https://gitee.com/guot54/YGBH777/raw/main/dc2.json</t>
+  </si>
+  <si>
+    <t>https://gitee.com/guot54/YGBH777/raw/main/ygbox.json</t>
+  </si>
+  <si>
+    <t>小白龙</t>
+  </si>
+  <si>
+    <t>http://39.101.135.137:8080/</t>
+  </si>
+  <si>
+    <t>春莹</t>
+  </si>
+  <si>
+    <t>德福苑</t>
+  </si>
+  <si>
+    <t>https://notabug.org/afecc/tvbox/raw/main/dfy.json</t>
+  </si>
+  <si>
+    <t>WIND</t>
+  </si>
+  <si>
+    <t>https://notabug.org/kite/wind/raw/master/wind.json</t>
+  </si>
+  <si>
+    <t>ydc</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/yudengcheng/ydcbox/main/ydc.json</t>
+  </si>
+  <si>
+    <t>小干货</t>
+  </si>
+  <si>
+    <t>http://mdxgh.dynv6.net/</t>
+  </si>
+  <si>
+    <t>无界</t>
+  </si>
+  <si>
+    <t>https://gitee.com/wj0321/tvlive/raw/main/wj.json</t>
+  </si>
+  <si>
+    <t>摸鱼</t>
+  </si>
+  <si>
+    <t>http://我不是.摸鱼儿.top</t>
+  </si>
+  <si>
+    <t>小鱼</t>
+  </si>
+  <si>
+    <t>https://download.kstore.space/download/4645/Tvbox/myks/99.png</t>
+  </si>
+  <si>
+    <t>翔翔</t>
+  </si>
+  <si>
+    <t>https://agit.ai/xx03253/xxu/raw/branch/main/xxtv.json</t>
+  </si>
+  <si>
+    <t>LR</t>
+  </si>
+  <si>
+    <t>https://agit.ai/abkier/tvbox-jihu/raw/branch/main/tv.txt</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>https://agit.ai/asdz324/TVBox2/raw/branch/main/api.json</t>
+  </si>
+  <si>
+    <t>风</t>
+  </si>
+  <si>
+    <t>https://notabug.org/kite/feng/raw/master/feng.json</t>
+  </si>
+  <si>
+    <t>https://gh.con.sh/https://raw.githubusercontent.com/guot55/yg/main/dc2.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0🍡日后魔改多仓库</t>
+  </si>
+  <si>
+    <t>https://agit.ai/gk0746/pxy/raw/branch/master/1%e4%bb%93.json</t>
+  </si>
+  <si>
+    <t>1🎭欧歌视频多仓库</t>
+  </si>
+  <si>
+    <t>http://w.nxog.top/nxog/ou2.php?url=http://w.nxog.top&amp;xl=1&amp;b=欧歌</t>
+  </si>
+  <si>
+    <t>2🍷蚂蚁影视二仓库</t>
+  </si>
+  <si>
+    <t>https://pan.shangui.cc/f/mBYNHb/%E8%9A%82%E8%9A%81%E7%AA%9D2%E5%B1%80.txt</t>
+  </si>
+  <si>
+    <t>3🍷蚂蚁影视三仓库</t>
+  </si>
+  <si>
+    <t>https://pan.shangui.cc/f/X2yqFd/%E8%9A%82%E8%9A%81%E7%AA%9D3%E5%B1%80.txt</t>
+  </si>
+  <si>
+    <t>4🥣砂锅影视多仓库</t>
+  </si>
+  <si>
+    <t>思牧分享📚接口地址</t>
+  </si>
+  <si>
+    <t>https://cdn.magiclee.cn/jk/🚀无意云线/api.json</t>
+  </si>
+  <si>
+    <t>思牧分享线路1📚</t>
+  </si>
+  <si>
+    <t>https://cdn.magiclee.cn/jk/🚀云星日记/api.json</t>
+  </si>
+  <si>
+    <t>思牧分享线路2📚</t>
+  </si>
+  <si>
+    <t>https://cdn.magiclee.cn/jk/🚀春盈天下/api.json</t>
+  </si>
+  <si>
+    <t>思牧分享线路3📚</t>
+  </si>
+  <si>
+    <t>https://cdn.magiclee.cn/jk/🚀喵影视线/api.json</t>
+  </si>
+  <si>
+    <t>思牧分享线路4📚接口地址</t>
+  </si>
+  <si>
+    <t>https://cdn.magiclee.cn/jk/🚀肥猫本地/api.json_x000D_
+思牧分享少儿频道📚 https://cdn.magiclee.cn/jk/🚀少儿频道/api.json</t>
+  </si>
+  <si>
+    <t>⑤🏮欧歌影视多仓库</t>
+  </si>
+  <si>
+    <t>http://tv.nxog.top/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <r>
+      <t>②</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎎</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蚂蚁影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.shangui.cc/f/KDpQc6/%EF%BB%BF%E8%9A%82%E8%9A%81%E7%AA%9D1%E5%B1%80.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>③</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>沐大神呀多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://agit.ai/2011820123/tv/raw/branch/master/tvbox.json</t>
+  </si>
+  <si>
+    <r>
+      <t>④</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍚</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>饭太硬多仓仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://d.kstore.space/download/2904/236.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>⑥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥝</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>金鹰影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://530.my3v.work/99668.json</t>
+  </si>
+  <si>
+    <r>
+      <t>⑦</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌟</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>星星影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://154.3.2.66:8889/down/YgOQS9WjkF6R.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>⑧</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🌴</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>青木影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://530.my3v.work/qm.json</t>
+  </si>
+  <si>
+    <t>http://tv.nxog.top/nxog/ou1.php?url=http://tv.nxog.top&amp;b=装B小宋哥直播1http://v.nxog.top/jar/live.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>⑨</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🕵</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>宋歌影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://39.101.135.137:8686/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>⑩</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🛀🏻</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>小白影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://ghps.cc/https://raw.githubusercontent.com/xmbjm/xmbjm/main/xmbjmdc.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>11</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🆔</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拾光影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>12</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎇</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>恒星影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://530.my3v.work/hxck.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>13</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💖</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>心动影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://530.my3v.work/xdck.json</t>
+  </si>
+  <si>
+    <r>
+      <t>147</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="3"/>
+      </rPr>
+      <t>⃣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>七星影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tvkj.top/DC.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>15</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>⛵️</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>壹梦影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://qrh.yimkj.cn/壹梦多仓.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>16</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水大侠影视仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gitee.com/GK_6_0/json/raw/master/json.txt</t>
+  </si>
+  <si>
+    <r>
+      <t>17</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>📺</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>追剧吧影视多仓</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jihulab.com/jw2/jyf/-/raw/main/jihu.json</t>
+  </si>
+  <si>
+    <r>
+      <t>18</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Symbol"/>
+        <family val="2"/>
+      </rPr>
+      <t>🛰</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蓝色大佬影视库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://atomgit.com/xghvrf/Xvbjffc/raw/master/Xboxb.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gh.con.sh/https://raw.githubusercontent.com/xmbjm/xmbjm/main/xmbjmdc.json</t>
+  </si>
+  <si>
+    <r>
+      <t>19</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥥</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>拾光源口多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>20</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍡</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>日后魔改多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>21</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🎭</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>欧歌视频多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>22</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蚂蚁影视二仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蚂蚁影视三仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>24</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🥣</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>砂锅影视多仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
@@ -317,6 +1462,24 @@
       <name val="微软雅黑"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI Symbol"/>
+      <family val="3"/>
     </font>
   </fonts>
   <fills count="2">
@@ -340,29 +1503,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FF000000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -672,10 +1857,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}">
-  <dimension ref="A1:B41"/>
+  <dimension ref="A1:B165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="A142" sqref="A142:B165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -684,137 +1869,137 @@
     <col min="2" max="2" width="93.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.2" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>41</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
+      <c r="A17" t="s">
+        <v>75</v>
       </c>
       <c r="B17" t="s">
         <v>31</v>
@@ -822,207 +2007,1267 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
+        <v>76</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>30</v>
+        <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>28</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>42</v>
+      <c r="A23" s="2" t="s">
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>44</v>
+        <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>45</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>46</v>
+        <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>64</v>
+        <v>40</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>47</v>
+        <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>42</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>43</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>50</v>
+        <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>44</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>51</v>
+        <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>69</v>
+        <v>45</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>70</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" t="s">
         <v>54</v>
       </c>
-      <c r="B35" t="s">
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>55</v>
+      </c>
+      <c r="B39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>56</v>
+      </c>
+      <c r="B40" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>57</v>
+      </c>
+      <c r="B41" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>58</v>
+      </c>
+      <c r="B42" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>63</v>
+      </c>
+      <c r="B45" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>64</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>65</v>
+      </c>
+      <c r="B47" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>101</v>
+      </c>
+      <c r="B48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" t="s">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>105</v>
+      </c>
+      <c r="B52" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B38" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B40" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="B41" t="s">
-        <v>78</v>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>68</v>
+      </c>
+      <c r="B53" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>69</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>70</v>
+      </c>
+      <c r="B55" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>111</v>
+      </c>
+      <c r="B57" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>113</v>
+      </c>
+      <c r="B58" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>115</v>
+      </c>
+      <c r="B59" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>117</v>
+      </c>
+      <c r="B60" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>119</v>
+      </c>
+      <c r="B61" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>121</v>
+      </c>
+      <c r="B62" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>123</v>
+      </c>
+      <c r="B63" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>125</v>
+      </c>
+      <c r="B64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>126</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>130</v>
+      </c>
+      <c r="B67" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>132</v>
+      </c>
+      <c r="B68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>134</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>136</v>
+      </c>
+      <c r="B70" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>136</v>
+      </c>
+      <c r="B71" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>139</v>
+      </c>
+      <c r="B72" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>144</v>
+      </c>
+      <c r="B75" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>146</v>
+      </c>
+      <c r="B76" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>150</v>
+      </c>
+      <c r="B78" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B79" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>153</v>
+      </c>
+      <c r="B80" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B81" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B83" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" t="s">
+        <v>158</v>
+      </c>
+      <c r="B84" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" t="s">
+        <v>158</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" t="s">
+        <v>170</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" t="s">
+        <v>174</v>
+      </c>
+      <c r="B92" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" t="s">
+        <v>181</v>
+      </c>
+      <c r="B96" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" t="s">
+        <v>184</v>
+      </c>
+      <c r="B98" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A99" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A100" t="s">
+        <v>188</v>
+      </c>
+      <c r="B100" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A101" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A102" t="s">
+        <v>192</v>
+      </c>
+      <c r="B102" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A103" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>196</v>
+      </c>
+      <c r="B104" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>200</v>
+      </c>
+      <c r="B106" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>204</v>
+      </c>
+      <c r="B108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>207</v>
+      </c>
+      <c r="B110" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>210</v>
+      </c>
+      <c r="B112" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>212</v>
+      </c>
+      <c r="B114" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>205</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116">
+        <v>111</v>
+      </c>
+      <c r="B116" s="3" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>217</v>
+      </c>
+      <c r="B118" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>218</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>220</v>
+      </c>
+      <c r="B120" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>224</v>
+      </c>
+      <c r="B122" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>228</v>
+      </c>
+      <c r="B124" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A125" t="s">
+        <v>230</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A126" t="s">
+        <v>232</v>
+      </c>
+      <c r="B126" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A127" t="s">
+        <v>234</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A128" t="s">
+        <v>236</v>
+      </c>
+      <c r="B128" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A129" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A130" t="s">
+        <v>241</v>
+      </c>
+      <c r="B130" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A131" t="s">
+        <v>243</v>
+      </c>
+      <c r="B131" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A132" t="s">
+        <v>245</v>
+      </c>
+      <c r="B132" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A133" t="s">
+        <v>247</v>
+      </c>
+      <c r="B133" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A134" t="s">
+        <v>249</v>
+      </c>
+      <c r="B134" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A136" t="s">
+        <v>250</v>
+      </c>
+      <c r="B136" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A137" t="s">
+        <v>252</v>
+      </c>
+      <c r="B137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A138" t="s">
+        <v>254</v>
+      </c>
+      <c r="B138" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A139" t="s">
+        <v>256</v>
+      </c>
+      <c r="B139" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A140" t="s">
+        <v>258</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>262</v>
+      </c>
+      <c r="B142" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A143" t="s">
+        <v>264</v>
+      </c>
+      <c r="B143" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A144" t="s">
+        <v>266</v>
+      </c>
+      <c r="B144" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>260</v>
+      </c>
+      <c r="B145" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A146" t="s">
+        <v>268</v>
+      </c>
+      <c r="B146" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A147" t="s">
+        <v>270</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>272</v>
+      </c>
+      <c r="B148" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A149" t="s">
+        <v>275</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A150" t="s">
+        <v>277</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A151" t="s">
+        <v>279</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A152" t="s">
+        <v>280</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A153" t="s">
+        <v>282</v>
+      </c>
+      <c r="B153" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A154" t="s">
+        <v>284</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A155" t="s">
+        <v>286</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A156" t="s">
+        <v>288</v>
+      </c>
+      <c r="B156" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A157" t="s">
+        <v>290</v>
+      </c>
+      <c r="B157" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="A158" t="s">
+        <v>292</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A159" t="s">
+        <v>295</v>
+      </c>
+      <c r="B159" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A161" t="s">
+        <v>296</v>
+      </c>
+      <c r="B161" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A162" t="s">
+        <v>297</v>
+      </c>
+      <c r="B162" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A163" t="s">
+        <v>298</v>
+      </c>
+      <c r="B163" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A164" t="s">
+        <v>299</v>
+      </c>
+      <c r="B164" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A165" t="s">
+        <v>300</v>
+      </c>
+      <c r="B165" t="s">
+        <v>193</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:B44" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}"/>
-  <phoneticPr fontId="2" type="noConversion"/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B83:B1048576 B1:B81">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="B24" r:id="rId1" xr:uid="{9295048B-EF4B-407A-BC9C-79CD61CC894D}"/>
+    <hyperlink ref="B116" r:id="rId1" xr:uid="{05E4776E-467C-49F3-81E2-49B506230397}"/>
+    <hyperlink ref="B147" r:id="rId2" xr:uid="{B1EDA492-D24E-4A06-AF50-547C2C1CBF03}"/>
+    <hyperlink ref="B149" r:id="rId3" xr:uid="{82A6DCC8-E54E-415A-8332-04E739B73EE9}"/>
+    <hyperlink ref="B150" r:id="rId4" xr:uid="{442E8718-40B0-4043-9725-25B1D9CB0CC8}"/>
+    <hyperlink ref="B151" r:id="rId5" xr:uid="{6697E089-A9A9-4893-A866-E68F6AABED5A}"/>
+    <hyperlink ref="B152" r:id="rId6" xr:uid="{60908359-5D29-4E5C-B68E-6F8E6852CE74}"/>
+    <hyperlink ref="B154" r:id="rId7" xr:uid="{612D0DF4-BDE6-4F4C-B37C-2DDF80573DC1}"/>
+    <hyperlink ref="B155" r:id="rId8" xr:uid="{ECD64EAD-4343-4603-8FEF-ED65995E5FEC}"/>
+    <hyperlink ref="B158" r:id="rId9" xr:uid="{5CC5506A-7A6E-43B5-BAAD-8272F171BFCD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId10"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
   </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC234C8-30F1-4CE5-8A90-B3FAA2AB9F61}">
+  <dimension ref="A51:A83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="17.54296875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A51" s="2"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A57" s="2"/>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A61" s="2"/>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A63" s="2"/>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A65" s="2"/>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A67" s="2"/>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A69" s="2"/>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A71" s="2"/>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A73" s="2"/>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A75" s="2"/>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A77" s="2"/>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A79" s="2"/>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A81" s="2"/>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A83" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22092631-B2AD-45D5-B3E9-63A713F09915}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="86.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F70DDBC6-4FCE-4EC0-B80F-9250F08AA145}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A36A8F-236A-4149-8A6B-6436BB223E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="3732" windowWidth="17256" windowHeight="8388" activeTab="1" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1865,7 +1865,27 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2218,8 +2238,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}">
   <dimension ref="A1:B258"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
+    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
+      <selection activeCell="B168" sqref="B168:B198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -4110,7 +4130,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC234C8-30F1-4CE5-8A90-B3FAA2AB9F61}">
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:B8"/>
     </sheetView>
   </sheetViews>
@@ -4206,10 +4226,7 @@
       <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="2" max="2" width="86.6328125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A36A8F-236A-4149-8A6B-6436BB223E98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D206F98A-14D6-4678-94BD-1A9E1D2602A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="785" uniqueCount="482">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -1781,6 +1781,157 @@
   <si>
     <t>http://gh.whoneil.top/https://raw.githubusercontent.com/xiqiliuse/tvbox/main/tvbox.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/短剧频道/</t>
+  </si>
+  <si>
+    <t>🚀短剧频道</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/荷城茶秀/</t>
+  </si>
+  <si>
+    <t>🚀荷城茶秀</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/骚零/</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/南风/</t>
+  </si>
+  <si>
+    <t>🚀南风线路</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/香雅情XYQ/</t>
+  </si>
+  <si>
+    <t>🚀香雅情XYQ</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/PG/</t>
+  </si>
+  <si>
+    <t>🚀PG线路</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/cy/</t>
+  </si>
+  <si>
+    <t>🚀春盈天下</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/肥猫/</t>
+  </si>
+  <si>
+    <t>🚀肥猫线路</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/小米/</t>
+  </si>
+  <si>
+    <t>🚀小米线路</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/饭太硬/</t>
+  </si>
+  <si>
+    <t>🚀饭太硬线</t>
+  </si>
+  <si>
+    <t>https://tv.youdu.fan:666/毒盒影视/</t>
+  </si>
+  <si>
+    <t>🚀毒盒影视🚀</t>
+  </si>
+  <si>
+    <t>xhdwc</t>
+  </si>
+  <si>
+    <t>🏄️多多┃无意线路</t>
+  </si>
+  <si>
+    <t>https://chuanshuo.77blog.cn/tv.json</t>
+  </si>
+  <si>
+    <t>传说</t>
+  </si>
+  <si>
+    <t>https://tvbox.wmmys.cn</t>
+  </si>
+  <si>
+    <t>王某</t>
+  </si>
+  <si>
+    <t>https://atomgit.com/sky4726/sky7186/raw/main/s.txt</t>
+  </si>
+  <si>
+    <t>SKY</t>
+  </si>
+  <si>
+    <t>https://la.kstore.space/download/3376/ts.txt</t>
+  </si>
+  <si>
+    <t>一起看线路</t>
+  </si>
+  <si>
+    <t>qiao</t>
+  </si>
+  <si>
+    <t>https://gitcode.net/u012349622/js/-/raw/master/jsm.json</t>
+  </si>
+  <si>
+    <t>收集线路1</t>
+  </si>
+  <si>
+    <t>https://jihulab.com/ymz1231/xymz/-/raw/main/ymshaoer</t>
+  </si>
+  <si>
+    <t>miao</t>
+  </si>
+  <si>
+    <t>100km</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://jihulab.com/ymz1231/xymz/-/raw/main/ymz</t>
+  </si>
+  <si>
+    <t>🌟夜猫子🌟</t>
+  </si>
+  <si>
+    <t>🌟俊佬🌟</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/xyq254245/xyqonlinerule/main/XYQTVBox.json</t>
+  </si>
+  <si>
+    <t>🤯香雅情本地</t>
+  </si>
+  <si>
+    <t>🌟小马🌟</t>
+  </si>
+  <si>
+    <t>🌟肥猫🌟</t>
+  </si>
+  <si>
+    <t>🌟老刘备🌟</t>
+  </si>
+  <si>
+    <t>📢春颖路线📢</t>
+  </si>
+  <si>
+    <t>H单仓</t>
+  </si>
+  <si>
+    <t>正则失败</t>
+  </si>
+  <si>
+    <t>H线路</t>
+  </si>
+  <si>
+    <t>H多仓</t>
   </si>
 </sst>
 </file>
@@ -1865,27 +2016,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2236,10 +2367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}">
-  <dimension ref="A1:B258"/>
+  <dimension ref="A1:C258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A225" workbookViewId="0">
-      <selection activeCell="B168" sqref="B168:B198"/>
+    <sheetView tabSelected="1" topLeftCell="A234" workbookViewId="0">
+      <selection activeCell="C259" sqref="C259"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -2248,1861 +2379,2635 @@
     <col min="2" max="2" width="74.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>190</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>396</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>140</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>141</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C3" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>128</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C4" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>197</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>78</v>
       </c>
       <c r="B6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C6" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" s="1" t="s">
         <v>370</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1" t="s">
         <v>371</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C8" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" s="1" t="s">
         <v>372</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>382</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C9" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>365</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>383</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C10" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>188</v>
       </c>
       <c r="B11" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C11" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>198</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>199</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>192</v>
       </c>
       <c r="B13" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C13" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>200</v>
       </c>
       <c r="B14" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C14" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>373</v>
       </c>
       <c r="B15" t="s">
         <v>270</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C15" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>374</v>
       </c>
       <c r="B16" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C16" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
         <v>314</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C17" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C18" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C19" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
         <v>292</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C20" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>359</v>
       </c>
       <c r="B21" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C21" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>358</v>
       </c>
       <c r="B22" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C22" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A23" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B23" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C23" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C24" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
         <v>241</v>
       </c>
       <c r="B25" t="s">
         <v>242</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C25" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
         <v>148</v>
       </c>
       <c r="B26" t="s">
         <v>149</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C26" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
         <v>352</v>
       </c>
       <c r="B27" t="s">
         <v>272</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C27" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
       <c r="B28" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C28" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
         <v>218</v>
       </c>
       <c r="B29" t="s">
         <v>219</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C29" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
         <v>202</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C30" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
         <v>228</v>
       </c>
       <c r="B31" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C31" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
         <v>360</v>
       </c>
       <c r="B32" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C32" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A33" s="1" t="s">
         <v>57</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C33" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
         <v>357</v>
       </c>
       <c r="B34" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C34" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
       <c r="B35" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C35" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
         <v>224</v>
       </c>
       <c r="B36" t="s">
         <v>225</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C36" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
         <v>226</v>
       </c>
       <c r="B37" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C37" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
         <v>57</v>
       </c>
       <c r="B38" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C38" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A39" s="1" t="s">
         <v>101</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C39" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
         <v>354</v>
       </c>
       <c r="B40" t="s">
         <v>273</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C40" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B41" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C41" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
       <c r="B42" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C42" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A43" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C43" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B44" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C44" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A45" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B45" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C46" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
         <v>181</v>
       </c>
       <c r="B47" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="C47" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
         <v>195</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>194</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C48" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B49" t="s">
         <v>326</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C49" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B50" t="s">
         <v>406</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C50" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>62</v>
       </c>
       <c r="B51" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C51" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B52" t="s">
         <v>333</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C52" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B53" s="1" t="s">
         <v>375</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C53" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
         <v>133</v>
       </c>
       <c r="B54" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C54" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
         <v>376</v>
       </c>
       <c r="B55" t="s">
         <v>320</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C55" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
         <v>166</v>
       </c>
       <c r="B56" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C56" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A57" s="1" t="s">
         <v>121</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C57" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B58" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B59" t="s">
         <v>409</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C59" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B60" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C60" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
         <v>230</v>
       </c>
       <c r="B61" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C61" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B62" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C62" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B63" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
         <v>44</v>
       </c>
       <c r="B64" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C64" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
         <v>356</v>
       </c>
       <c r="B65" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C65" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B66" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C66" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B67" t="s">
         <v>321</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C67" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B68" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C68" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A69" s="1" t="s">
         <v>44</v>
       </c>
       <c r="B69" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C69" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B70" t="s">
         <v>412</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C70" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B71" t="s">
         <v>331</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C71" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B72" t="s">
         <v>332</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C72" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
         <v>366</v>
       </c>
       <c r="B73" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C73" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
         <v>116</v>
       </c>
       <c r="B74" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C74" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
         <v>250</v>
       </c>
       <c r="B75" t="s">
         <v>251</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C75" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
         <v>252</v>
       </c>
       <c r="B76" t="s">
         <v>253</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C76" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>211</v>
       </c>
       <c r="B77" t="s">
         <v>215</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C77" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A78" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B78" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C78" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B79" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C79" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>67</v>
       </c>
       <c r="B80" t="s">
         <v>291</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C80" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
         <v>377</v>
       </c>
       <c r="B81" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C81" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
         <v>216</v>
       </c>
       <c r="B82" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C82" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
         <v>152</v>
       </c>
       <c r="B83" t="s">
         <v>153</v>
       </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C83" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A84" s="1" t="s">
         <v>67</v>
       </c>
       <c r="B84" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C84" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
         <v>123</v>
       </c>
       <c r="B85" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C85" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
         <v>379</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>378</v>
       </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C86" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
         <v>47</v>
       </c>
       <c r="B87" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C87" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B88" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C88" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
         <v>185</v>
       </c>
       <c r="B89" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C89" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B90" t="s">
         <v>313</v>
       </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C90" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B91" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C91" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
         <v>158</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C92" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
         <v>160</v>
       </c>
       <c r="B93" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C93" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B94" t="s">
         <v>405</v>
       </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C94" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
         <v>367</v>
       </c>
       <c r="B95" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C95" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
         <v>82</v>
       </c>
       <c r="B96" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C96" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
         <v>54</v>
       </c>
       <c r="B97" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C97" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A98" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C98" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
       <c r="B99" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C99" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
         <v>164</v>
       </c>
       <c r="B100" t="s">
         <v>165</v>
       </c>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C100" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B101" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C101" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B102" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C102" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
         <v>413</v>
       </c>
       <c r="B103" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C103" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B104" t="s">
         <v>315</v>
       </c>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C104" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B105" t="s">
         <v>279</v>
       </c>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C105" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
         <v>363</v>
       </c>
       <c r="B106" t="s">
         <v>364</v>
       </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C106" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B107" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C107" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B108" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C108" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B109" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C109" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A110" t="s">
         <v>363</v>
       </c>
       <c r="B110" t="s">
         <v>267</v>
       </c>
-    </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C110" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
         <v>363</v>
       </c>
       <c r="B111" t="s">
         <v>280</v>
       </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C111" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A112" t="s">
         <v>40</v>
       </c>
       <c r="B112" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C112" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B113" t="s">
         <v>308</v>
       </c>
-    </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C113" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
         <v>108</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C114" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A115" t="s">
         <v>222</v>
       </c>
       <c r="B115" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C115" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B116" t="s">
         <v>408</v>
       </c>
-    </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C116" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A117" t="s">
         <v>57</v>
       </c>
       <c r="B117" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C117" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A118" t="s">
         <v>156</v>
       </c>
       <c r="B118" t="s">
         <v>157</v>
       </c>
-    </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C118" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B119" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C119" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B120" t="s">
         <v>394</v>
       </c>
-    </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C120" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A121" t="s">
         <v>119</v>
       </c>
       <c r="B121" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C121" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
         <v>96</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C122" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A123" t="s">
         <v>86</v>
       </c>
       <c r="B123" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C123" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
         <v>246</v>
       </c>
       <c r="B124" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C124" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
         <v>56</v>
       </c>
       <c r="B125" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="126" spans="1:2" ht="16.8" x14ac:dyDescent="0.35">
+      <c r="C125" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
         <v>208</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>209</v>
       </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C126" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B127" t="s">
         <v>266</v>
       </c>
-    </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C127" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A128" t="s">
         <v>176</v>
       </c>
       <c r="B128" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C128" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A129" t="s">
         <v>180</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>263</v>
       </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C129" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A130" t="s">
         <v>178</v>
       </c>
       <c r="B130" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C130" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
         <v>264</v>
       </c>
       <c r="B131" s="2" t="s">
         <v>265</v>
       </c>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C131" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A132" t="s">
         <v>427</v>
       </c>
       <c r="B132" s="3" t="s">
         <v>426</v>
       </c>
-    </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C132" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
         <v>172</v>
       </c>
       <c r="B133" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C133" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A134" t="s">
         <v>174</v>
       </c>
       <c r="B134" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C134" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
         <v>425</v>
       </c>
       <c r="B135" s="3" t="s">
         <v>424</v>
       </c>
-    </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C135" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
         <v>53</v>
       </c>
       <c r="B136" t="s">
         <v>325</v>
       </c>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C136" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A137" t="s">
         <v>53</v>
       </c>
       <c r="B137" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C137" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
         <v>361</v>
       </c>
       <c r="B138" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C138" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A139" t="s">
         <v>380</v>
       </c>
       <c r="B139" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C139" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A140" t="s">
         <v>380</v>
       </c>
       <c r="B140" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C140" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
         <v>380</v>
       </c>
       <c r="B141" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C141" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A142" t="s">
         <v>380</v>
       </c>
       <c r="B142" t="s">
         <v>310</v>
       </c>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C142" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
         <v>380</v>
       </c>
       <c r="B143" t="s">
         <v>303</v>
       </c>
-    </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C143" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
         <v>49</v>
       </c>
       <c r="B144" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C144" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A145" t="s">
         <v>154</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C145" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A146" t="s">
         <v>235</v>
       </c>
       <c r="B146" t="s">
         <v>236</v>
       </c>
-    </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C146" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
         <v>423</v>
       </c>
       <c r="B147" t="s">
         <v>422</v>
       </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C147" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B148" t="s">
         <v>285</v>
       </c>
-    </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C148" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B149" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C149" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
         <v>204</v>
       </c>
       <c r="B150" t="s">
         <v>205</v>
       </c>
-    </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C150" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
         <v>137</v>
       </c>
       <c r="B151" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C151" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A152" t="s">
         <v>131</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C152" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
         <v>43</v>
       </c>
       <c r="B153" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C153" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A154" s="1" t="s">
         <v>150</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>151</v>
       </c>
-    </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C154" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B155" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C155" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A156" t="s">
         <v>417</v>
       </c>
       <c r="B156" t="s">
         <v>416</v>
       </c>
-    </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C156" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A157" t="s">
         <v>261</v>
       </c>
       <c r="B157" t="s">
         <v>262</v>
       </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C157" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A158" t="s">
         <v>257</v>
       </c>
       <c r="B158" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C158" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
         <v>259</v>
       </c>
       <c r="B159" t="s">
         <v>260</v>
       </c>
-    </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C159" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
         <v>213</v>
       </c>
       <c r="B160" t="s">
         <v>214</v>
       </c>
-    </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C160" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A161" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B161" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C161" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
         <v>206</v>
       </c>
       <c r="B162" t="s">
         <v>207</v>
       </c>
-    </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C162" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B163" t="s">
         <v>407</v>
       </c>
-    </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C163" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A164" t="s">
         <v>103</v>
       </c>
       <c r="B164" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C164" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A165" t="s">
         <v>55</v>
       </c>
       <c r="B165" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C165" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
         <v>51</v>
       </c>
       <c r="B166" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C166" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A167" s="1" t="s">
         <v>105</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C167" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B168" t="s">
         <v>402</v>
       </c>
-    </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C168" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A169" s="1" t="s">
         <v>10</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C169" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A170" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>350</v>
       </c>
-    </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C170" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A171" t="s">
         <v>100</v>
       </c>
       <c r="B171" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C171" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A172" t="s">
         <v>362</v>
       </c>
       <c r="B172" t="s">
         <v>345</v>
       </c>
-    </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C172" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B173" s="3" t="s">
         <v>401</v>
       </c>
-    </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C173" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A174" t="s">
         <v>237</v>
       </c>
       <c r="B174" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C174" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B175" s="3" t="s">
         <v>403</v>
       </c>
-    </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C175" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B176" s="1" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C176" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A177" t="s">
         <v>110</v>
       </c>
       <c r="B177" t="s">
         <v>340</v>
       </c>
-    </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C177" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B178" s="1" t="s">
         <v>351</v>
       </c>
-    </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C178" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A179" s="1" t="s">
         <v>255</v>
       </c>
       <c r="B179" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C179" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A180" s="1" t="s">
         <v>393</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C180" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A181" s="1" t="s">
         <v>384</v>
       </c>
       <c r="B181" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C181" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A182" s="1" t="s">
         <v>385</v>
       </c>
       <c r="B182" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C182" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A183" s="1" t="s">
         <v>386</v>
       </c>
       <c r="B183" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C183" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A184" s="1" t="s">
         <v>387</v>
       </c>
       <c r="B184" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C184" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A185" s="1" t="s">
         <v>388</v>
       </c>
       <c r="B185" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C185" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A186" s="1" t="s">
         <v>389</v>
       </c>
       <c r="B186" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C186" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A187" s="1" t="s">
         <v>390</v>
       </c>
       <c r="B187" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C187" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A188" s="1" t="s">
         <v>391</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C188" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A189" s="1" t="s">
         <v>392</v>
       </c>
       <c r="B189" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C189" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A190" t="s">
         <v>243</v>
       </c>
       <c r="B190" t="s">
         <v>344</v>
       </c>
-    </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C190" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A191" t="s">
         <v>210</v>
       </c>
       <c r="B191" t="s">
         <v>343</v>
       </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C191" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A192" t="s">
         <v>369</v>
       </c>
       <c r="B192" t="s">
         <v>346</v>
       </c>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C192" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A193" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B193" s="1" t="s">
         <v>348</v>
       </c>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C193" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A194" s="1" t="s">
         <v>146</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C194" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A195" s="1" t="s">
         <v>118</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>342</v>
       </c>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C195" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A196" s="1" t="s">
         <v>115</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>341</v>
       </c>
-    </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C196" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A197" t="s">
         <v>98</v>
       </c>
       <c r="B197" t="s">
         <v>338</v>
       </c>
-    </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C197" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B198" s="3" t="s">
         <v>404</v>
       </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C198" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B199" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C199" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B200" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C200" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A201" t="s">
         <v>142</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C201" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A202" s="1" t="s">
         <v>162</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C202" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A203" t="s">
         <v>144</v>
       </c>
       <c r="B203" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C203" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B204" t="s">
         <v>334</v>
       </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C204" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A205" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C205" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A206" t="s">
         <v>89</v>
       </c>
       <c r="B206" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C206" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A207" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B207" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C207" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A208" t="s">
         <v>89</v>
       </c>
       <c r="B208" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C208" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B209" t="s">
         <v>290</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C209" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B210" t="s">
         <v>307</v>
       </c>
-    </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C210" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A211" t="s">
         <v>183</v>
       </c>
       <c r="B211" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C211" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B212" t="s">
         <v>397</v>
       </c>
-    </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C212" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A213" t="s">
         <v>61</v>
       </c>
       <c r="B213" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C213" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A214" t="s">
         <v>168</v>
       </c>
       <c r="B214" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C214" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B215" t="s">
         <v>399</v>
       </c>
-    </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C215" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B216" t="s">
         <v>335</v>
       </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C216" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A217" t="s">
         <v>170</v>
       </c>
       <c r="B217" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C217" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B218" t="s">
         <v>398</v>
       </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C218" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A219" t="s">
         <v>353</v>
       </c>
       <c r="B219" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C219" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A220" t="s">
         <v>239</v>
       </c>
       <c r="B220" t="s">
         <v>240</v>
       </c>
-    </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C220" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A221" t="s">
         <v>130</v>
       </c>
       <c r="B221" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C221" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A222" s="1" t="s">
         <v>131</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C222" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A223" t="s">
         <v>415</v>
       </c>
       <c r="B223" t="s">
         <v>414</v>
       </c>
-    </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C223" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A224" t="s">
         <v>419</v>
       </c>
       <c r="B224" t="s">
         <v>418</v>
       </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C224" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B225" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C225" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A226" t="s">
         <v>52</v>
       </c>
       <c r="B226" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C226" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A227" s="1" t="s">
         <v>111</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C227" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A228" s="1" t="s">
         <v>381</v>
       </c>
       <c r="B228" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C228" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B229" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C229" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A230" t="s">
         <v>81</v>
       </c>
       <c r="B230" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C230" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B231" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C231" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B232" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C232" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A233" t="s">
         <v>244</v>
       </c>
       <c r="B233" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C233" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B234" t="s">
         <v>284</v>
       </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C234" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B235" t="s">
         <v>287</v>
       </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C235" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A236" t="s">
         <v>248</v>
       </c>
       <c r="B236" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C236" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B237" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C237" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A238" t="s">
         <v>45</v>
       </c>
       <c r="B238" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C238" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A239" s="1" t="s">
         <v>135</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C239" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A240" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B240" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A241" t="s">
         <v>89</v>
       </c>
       <c r="B241" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C241" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A242" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B242" t="s">
         <v>289</v>
       </c>
-    </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C242" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A243" s="1" t="s">
         <v>99</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C243" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B244" t="s">
         <v>324</v>
       </c>
-    </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C244" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B245" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C245" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A246" t="s">
         <v>232</v>
       </c>
       <c r="B246" t="s">
         <v>233</v>
       </c>
-    </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C246" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A247" t="s">
         <v>113</v>
       </c>
       <c r="B247" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C247" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A248" t="s">
         <v>368</v>
       </c>
       <c r="B248" t="s">
         <v>283</v>
       </c>
-    </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C248" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B249" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C249" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A250" t="s">
         <v>41</v>
       </c>
       <c r="B250" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C250" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A251" t="s">
         <v>421</v>
       </c>
       <c r="B251" t="s">
         <v>420</v>
       </c>
-    </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C251" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B252" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C252" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B253" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C253" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A254" t="s">
         <v>46</v>
       </c>
       <c r="B254" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C254" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.35">
       <c r="B255" t="s">
         <v>327</v>
       </c>
-    </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C255" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A256" t="s">
         <v>123</v>
       </c>
       <c r="B256" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C256" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A257" t="s">
         <v>152</v>
       </c>
       <c r="B257" t="s">
         <v>234</v>
       </c>
-    </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C257" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A258" t="s">
         <v>220</v>
       </c>
       <c r="B258" t="s">
         <v>221</v>
+      </c>
+      <c r="C258" t="s">
+        <v>479</v>
       </c>
     </row>
   </sheetData>
@@ -4220,14 +5125,274 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22092631-B2AD-45D5-B3E9-63A713F09915}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="93.36328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>476</v>
+      </c>
+      <c r="B4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>475</v>
+      </c>
+      <c r="B5" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B6" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>473</v>
+      </c>
+      <c r="B7" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>471</v>
+      </c>
+      <c r="B8" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>470</v>
+      </c>
+      <c r="B9" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>417</v>
+      </c>
+      <c r="B10" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>467</v>
+      </c>
+      <c r="B12" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>465</v>
+      </c>
+      <c r="B13" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>463</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>462</v>
+      </c>
+      <c r="B15" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>460</v>
+      </c>
+      <c r="B16" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>458</v>
+      </c>
+      <c r="B17" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B18" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>456</v>
+      </c>
+      <c r="B19" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>454</v>
+      </c>
+      <c r="B20" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>453</v>
+      </c>
+      <c r="B21" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>452</v>
+      </c>
+      <c r="B22" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>450</v>
+      </c>
+      <c r="B23" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>448</v>
+      </c>
+      <c r="B24" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>446</v>
+      </c>
+      <c r="B25" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>444</v>
+      </c>
+      <c r="B26" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>442</v>
+      </c>
+      <c r="B27" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>440</v>
+      </c>
+      <c r="B28" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>438</v>
+      </c>
+      <c r="B29" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>421</v>
+      </c>
+      <c r="B30" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>435</v>
+      </c>
+      <c r="B31" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>433</v>
+      </c>
+      <c r="B32" t="s">
+        <v>432</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67B199D-13C1-4246-B3E8-3C5C9BAB9390}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F49EAE0F-5F81-4657-AA36-9645891ACB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="xl" sheetId="3" r:id="rId3"/>
+    <sheet name="xl done" sheetId="3" r:id="rId3"/>
+    <sheet name="dc" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$F$175</definedName>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1140" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1570" uniqueCount="441">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -79,45 +80,21 @@
     <t>https://jihulab.com/duomv/apps/-/raw/main/fast.json</t>
   </si>
   <si>
-    <t>http://52bsj.vip:98/wuaihouse</t>
-  </si>
-  <si>
     <t>https://pastebin.com/raw/5NHaxyGR</t>
   </si>
   <si>
     <t>https://raw.liucn.cc/box/m.json</t>
   </si>
   <si>
-    <t>http://52bsj.vip:98/wuai</t>
-  </si>
-  <si>
     <t>https://pan.shangui.cc/f/lmP0Hk/mao4.txt</t>
   </si>
   <si>
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/tvbox/cang.json</t>
   </si>
   <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/daku.txt</t>
-  </si>
-  <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/讴歌多仓.txt</t>
-  </si>
-  <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/七星多仓.txt</t>
-  </si>
-  <si>
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/心动仓库.txt</t>
   </si>
   <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/宝盒多仓.txt</t>
-  </si>
-  <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/云星多仓.txt</t>
-  </si>
-  <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/多多多仓.txt</t>
-  </si>
-  <si>
     <t>http://nxog.eu.org/m/111.php?ou=公众号欧歌app&amp;mz=index&amp;jar=index&amp;123&amp;b=欧歌</t>
   </si>
   <si>
@@ -172,9 +149,6 @@
     <t>https://s2.pub/xmbjmxdc</t>
   </si>
   <si>
-    <t>http://52bsj.vip:98/cl</t>
-  </si>
-  <si>
     <t>最牛逼接口</t>
   </si>
   <si>
@@ -205,9 +179,6 @@
     <t>https://cf.weixine.net/ysc.json</t>
   </si>
   <si>
-    <t>月光宝盒</t>
-  </si>
-  <si>
     <t>https://wds.ecsxs.com/230989.json</t>
   </si>
   <si>
@@ -232,9 +203,6 @@
     <t>欧歌多仓</t>
   </si>
   <si>
-    <t>https://nxog.eu.org/nxog/nxog1.php?b=欧歌</t>
-  </si>
-  <si>
     <t>https://nxog.eu.org/nxog/ou1.php?b=欧歌</t>
   </si>
   <si>
@@ -319,9 +287,6 @@
     <t>https://qixing.myhkw.com/tianwei/svip.json</t>
   </si>
   <si>
-    <t>天微多仓接口</t>
-  </si>
-  <si>
     <t>http://tvkj.top/DC.txt</t>
   </si>
   <si>
@@ -391,15 +356,9 @@
     <t>https://notabug.org/kite/feng/raw/master/feng.json</t>
   </si>
   <si>
-    <t>2🍷蚂蚁影视二仓库</t>
-  </si>
-  <si>
     <t>https://pan.shangui.cc/f/mBYNHb/%E8%9A%82%E8%9A%81%E7%AA%9D2%E5%B1%80.txt</t>
   </si>
   <si>
-    <t>3🍷蚂蚁影视三仓库</t>
-  </si>
-  <si>
     <t>https://pan.shangui.cc/f/X2yqFd/%E8%9A%82%E8%9A%81%E7%AA%9D3%E5%B1%80.txt</t>
   </si>
   <si>
@@ -430,119 +389,19 @@
     <t>思牧分享线路4📚接口地址</t>
   </si>
   <si>
-    <r>
-      <t>②</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🎎</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>蚂蚁影视多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://pan.shangui.cc/f/KDpQc6/%EF%BB%BF%E8%9A%82%E8%9A%81%E7%AA%9D1%E5%B1%80.txt</t>
   </si>
   <si>
     <t>https://d.kstore.space/download/2904/236.txt</t>
   </si>
   <si>
-    <r>
-      <t>⑥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🥝</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>金鹰影视多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://530.my3v.work/99668.json</t>
-  </si>
-  <si>
-    <r>
-      <t>⑦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🌟</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>星星影视多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>http://154.3.2.66:8889/down/YgOQS9WjkF6R.txt</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>⑧</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🌴</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>青木影视多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://530.my3v.work/qm.json</t>
   </si>
   <si>
@@ -550,139 +409,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>⑩</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🛀🏻</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>小白影视多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>12</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🎇</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>恒星影视多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://530.my3v.work/hxck.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>13</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>💖</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>心动影视多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>http://530.my3v.work/xdck.json</t>
   </si>
   <si>
-    <r>
-      <t>16</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>💠</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>水大侠影视仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>https://gitee.com/GK_6_0/json/raw/master/json.txt</t>
-  </si>
-  <si>
-    <r>
-      <t>17</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>📺</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>追剧吧影视多仓</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>https://jihulab.com/jw2/jyf/-/raw/main/jihu.json</t>
@@ -717,31 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>19</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🥥</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>拾光源口多仓库</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>🧶思牧丨饭影视</t>
   </si>
   <si>
@@ -957,9 +666,6 @@
     <t>https://youdu.fan/DC.txt</t>
   </si>
   <si>
-    <t>https://weixine.net/api.json</t>
-  </si>
-  <si>
     <t>https://cf.weixine.net/api.json</t>
   </si>
   <si>
@@ -999,9 +705,6 @@
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/gaotianliuyun/gao/master/js.json</t>
   </si>
   <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/mengzehe/tvbox/main/自用多仓</t>
-  </si>
-  <si>
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/yyfxz/yyrh/main/fxz.json</t>
   </si>
   <si>
@@ -1015,9 +718,6 @@
   </si>
   <si>
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/xmbjm/xmbjmjk/main/xmbjm.json</t>
-  </si>
-  <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/mengzehe/tvbox/main/%E8%87%AA%E7%94%A8%E5%A4%9A%E4%BB%93</t>
   </si>
   <si>
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/xyq254245/xyqonlinerule/main/XYQTVBox.json</t>
@@ -1061,50 +761,6 @@
   </si>
   <si>
     <t>拾光</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🔘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吾爱1</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🔘</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t>吾爱2</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <r>
@@ -1209,37 +865,16 @@
     <t>元老库收集市面运行时间最长接口合集</t>
   </si>
   <si>
-    <t>宝盒多仓</t>
-  </si>
-  <si>
-    <t>多多多仓</t>
-  </si>
-  <si>
-    <t>讴歌多仓</t>
-  </si>
-  <si>
-    <t>七星多仓</t>
-  </si>
-  <si>
     <t>心动仓库</t>
   </si>
   <si>
-    <t>云星多仓</t>
-  </si>
-  <si>
     <t>爱TV自营接口单仓</t>
-  </si>
-  <si>
-    <t>爱TV自营接口多仓</t>
   </si>
   <si>
     <t>推荐仓库1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>https://pan.shangui.cc/f/KDpQc6/﻿蚂蚁窝1局.txt</t>
-  </si>
-  <si>
     <t>https://pan.shangui.cc/f/X2yqFd/蚂蚁窝3局.txt</t>
   </si>
   <si>
@@ -1306,22 +941,6 @@
   </si>
   <si>
     <t>🚀天天开心</t>
-  </si>
-  <si>
-    <t>我的gitee</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我的github</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://raw.githubusercontent.com/xiqiliuse/tvbox/main/tvbox.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://gh.whoneil.top/https://raw.githubusercontent.com/xiqiliuse/tvbox/main/tvbox.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>H单仓</t>
@@ -1503,12 +1122,472 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/mengzehe/tvbox/main/%E8%87%AA%E7%94%A8%E5%A4%9A%E4%BB%93</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/mengzehe/tvbox/main/自用多仓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/daku.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://nxog.eu.org/nxog/nxog1.php?b=欧歌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>xhz</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蚂蚁影视二仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🍷</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>蚂蚁影视三仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://pan.shangui.cc/f/KDpQc6/﻿蚂蚁窝1局.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁窝1局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁窝2局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁窝3局</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://weixine.net/api.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>weixi</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>💠</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>水大侠影视仓库</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>🌟星星影视</t>
+  </si>
+  <si>
+    <t>🛀🏻小白影视</t>
+  </si>
+  <si>
+    <t>🥝金鹰影视</t>
+  </si>
+  <si>
+    <t>🎇恒星影视</t>
+  </si>
+  <si>
+    <t>🌴青木影视</t>
+  </si>
+  <si>
+    <t>💖心动影视</t>
+  </si>
+  <si>
+    <t>🥥拾光源口</t>
+  </si>
+  <si>
+    <t>🎎蚂蚁影视</t>
+  </si>
+  <si>
+    <t>天微接口</t>
+  </si>
+  <si>
+    <t>🍚饭太硬仓库</t>
+  </si>
+  <si>
+    <t>📺追剧吧影视</t>
+  </si>
+  <si>
+    <t>宝盒</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/宝盒.txt</t>
+  </si>
+  <si>
+    <t>多多</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/多多.txt</t>
+  </si>
+  <si>
+    <t>讴歌</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/讴歌.txt</t>
+  </si>
+  <si>
+    <t>七星</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/七星.txt</t>
+  </si>
+  <si>
+    <t>云星</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/txtvv/txtv/main/ku/云星.txt</t>
+  </si>
+  <si>
+    <t>爱TV自营接口</t>
+  </si>
+  <si>
+    <t>自己专用单仓</t>
+  </si>
+  <si>
+    <t>https:ghproxy.com/https:raw.githubusercontent.com/mengzehe/tvbox/main/自用单仓</t>
+  </si>
+  <si>
+    <t>放学回家单仓</t>
+  </si>
+  <si>
+    <t>https:ghproxy.com/https:raw.githubusercontent.com/jigedos/CTTBOX/main/dcpro608.json</t>
+  </si>
+  <si>
+    <t>云星在线单仓</t>
+  </si>
+  <si>
+    <t>https:itvbox.cc/可视TV/云星日记/仓库/api.json</t>
+  </si>
+  <si>
+    <t>业余奇奇单仓</t>
+  </si>
+  <si>
+    <t>https:ghproxy.com/https:raw.githubusercontent.com/yyfxz/qqtv/main/qq.json</t>
+  </si>
+  <si>
+    <t>https:ghproxy.com/https:raw.githubusercontent.com/yyfxz/yyrh/main/fxz.json</t>
+  </si>
+  <si>
+    <t>日后精选单仓</t>
+  </si>
+  <si>
+    <t>http:rihou.cc:66/多仓/0.php</t>
+  </si>
+  <si>
+    <t>多多聚合多仓</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/duomv/apps/-/raw/main/fast.json</t>
+  </si>
+  <si>
+    <t>多多优选单仓</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/duomv/apps/-/raw/main/a.txt</t>
+  </si>
+  <si>
+    <t>多多公众仓</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/duomv/apps/-/raw/main/b.txt</t>
+  </si>
+  <si>
+    <t>多多聚合仓</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/duomv/apps/-/raw/main/c.txt</t>
+  </si>
+  <si>
+    <t>多多预备仓</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/duomv/apps/-/raw/main/d.txt</t>
+  </si>
+  <si>
+    <t>https:raw.liucn.cc/box/dc.txt</t>
+  </si>
+  <si>
+    <t>高天流云多仓</t>
+  </si>
+  <si>
+    <t>https:agit.ai/butterfly/md/raw/branch/Zaku/DC-main.json</t>
+  </si>
+  <si>
+    <t>超级仓库单仓</t>
+  </si>
+  <si>
+    <t>https:www.agit.ai/hu/hcr/raw/branch/master/99668.txt</t>
+  </si>
+  <si>
+    <t>月光宝盒仓①</t>
+  </si>
+  <si>
+    <t>https:gitlab.com/ygbh1/666/-/raw/main/dcang/1.json</t>
+  </si>
+  <si>
+    <t>月光宝盒仓②</t>
+  </si>
+  <si>
+    <t>https:gitlab.com/ygbh1/666/-/raw/main/dcang/2.json</t>
+  </si>
+  <si>
+    <t>月光宝盒仓③</t>
+  </si>
+  <si>
+    <t>https:gitlab.com/ygbh1/666/-/raw/main/dcang/3.json</t>
+  </si>
+  <si>
+    <t>月光宝盒仓④</t>
+  </si>
+  <si>
+    <t>https:gitlab.com/ygbh1/666/-/raw/main/dcang/4.json</t>
+  </si>
+  <si>
+    <t>月光优选仓①</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/ygbh1/box/-/raw/main/dcang/a.json</t>
+  </si>
+  <si>
+    <t>月光备用仓②</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/ygbh1/box/-/raw/main/dcang/b.json</t>
+  </si>
+  <si>
+    <t>月光网络仓③</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/ygbh1/box/-/raw/main/dcang/c.json</t>
+  </si>
+  <si>
+    <t>月光大咖仓④</t>
+  </si>
+  <si>
+    <t>https:jihulab.com/ygbh1/box/-/raw/main/dcang/d.json</t>
+  </si>
+  <si>
+    <t>大烟管仓库①</t>
+  </si>
+  <si>
+    <t>https:gitlab.com/ygbh1/666/-/raw/main/dcang/ck.txt</t>
+  </si>
+  <si>
+    <t>电视盒子单仓</t>
+  </si>
+  <si>
+    <t>http:chuanshuo.77blog.cn/yuan</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/tvbox/cang.json</t>
+  </si>
+  <si>
+    <t>❤公众号【爱tv吧】防失联❤</t>
+  </si>
+  <si>
+    <t>❤【元老库】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/元老库.txt</t>
+  </si>
+  <si>
+    <t>❤【精品库】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/精品库.txt</t>
+  </si>
+  <si>
+    <t>❤【讴歌多仓】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/讴歌多仓.txt</t>
+  </si>
+  <si>
+    <t>❤【七星多仓】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/七星多仓.txt</t>
+  </si>
+  <si>
+    <t>❤【心动仓库】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/心动仓库.txt</t>
+  </si>
+  <si>
+    <t>❤【宝盒多仓】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/宝盒多仓.txt</t>
+  </si>
+  <si>
+    <t>❤【云星多仓】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/云星多仓.txt</t>
+  </si>
+  <si>
+    <t>❤【多多多仓】❤</t>
+  </si>
+  <si>
+    <t>https:mirror.ghproxy.com/https:raw.githubusercontent.com/txtvv/txtv/main/ku/多多多仓.txt</t>
+  </si>
+  <si>
+    <t>🎬挺好┃观影仓库</t>
+  </si>
+  <si>
+    <t>https:ghproxy.net/https:raw.githubusercontent.com/ZTHA000/tvbox/main/gyck.json</t>
+  </si>
+  <si>
+    <t>🎬挺好┃观影仓库(备用）</t>
+  </si>
+  <si>
+    <t>https:pan.shangui.cc/f/Vq3XU8/%E5%AE%B6%E5%BA%AD%E4%BB%93%E5%BA%93%E6%8E%A5%E5%8F%A3_1.txt</t>
+  </si>
+  <si>
+    <t>🌹欧歌主仓库🌹</t>
+  </si>
+  <si>
+    <t>http:nxog.eu.org/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>🌷欧歌备1仓库🌷</t>
+  </si>
+  <si>
+    <t>http:1.t.nxog.top/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>🌷欧歌备2仓库🌷</t>
+  </si>
+  <si>
+    <t>http:1.a.欧.我爱你/nxog/ou1.php?b=欧歌</t>
+  </si>
+  <si>
+    <t>http://154.3.2.66:8889/down/YgOQS9WjkF6R.txt</t>
+  </si>
+  <si>
+    <t>http://39.101.135.137:8686</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://39.101.135.137:8686/</t>
+  </si>
+  <si>
+    <t>http://530.my3v.work/hxck.json</t>
+  </si>
+  <si>
+    <t>xhz</t>
+  </si>
+  <si>
+    <t>💠水大侠影视仓库</t>
+  </si>
+  <si>
+    <t>拾光精选单仓线路：</t>
+  </si>
+  <si>
+    <t>推荐仓库2</t>
+  </si>
+  <si>
+    <t>推荐仓库1</t>
+  </si>
+  <si>
+    <t>蚂蚁窝1局</t>
+  </si>
+  <si>
+    <t>https://pan.shangui.cc/f/KDpQc6/﻿蚂蚁窝1局.txt</t>
+  </si>
+  <si>
+    <t>🍷蚂蚁影视二仓库</t>
+  </si>
+  <si>
+    <t>蚂蚁窝2局</t>
+  </si>
+  <si>
+    <t>🍷蚂蚁影视三仓库</t>
+  </si>
+  <si>
+    <t>蚂蚁窝3局</t>
+  </si>
+  <si>
+    <t>有毒</t>
+  </si>
+  <si>
+    <t>weixi</t>
+  </si>
+  <si>
+    <t>https://weixine.net/api.json</t>
+  </si>
+  <si>
+    <t>❤汇集天下所有接口❤</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1542,6 +1621,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1568,7 +1654,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1581,12 +1667,62 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="8">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1937,315 +2073,314 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F175"/>
   <sheetViews>
-    <sheetView topLeftCell="A162" workbookViewId="0">
-      <selection activeCell="B187" sqref="B187"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="25" customWidth="1"/>
-    <col min="2" max="2" width="74.7265625" customWidth="1"/>
+    <col min="2" max="2" width="103.26953125" customWidth="1"/>
     <col min="6" max="6" width="16.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>134</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>135</v>
+        <v>326</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>118</v>
       </c>
       <c r="C1" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D1" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E1" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F1" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B2" s="3" t="s">
-        <v>310</v>
+        <v>270</v>
       </c>
       <c r="C2" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D2" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F2" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C3" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D3" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E3" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F3" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C4" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D4" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>327</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>138</v>
+        <v>120</v>
       </c>
       <c r="C5" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D5" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F5" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" s="1" t="s">
-        <v>257</v>
+        <v>228</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="C6" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E6" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F6" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="C7" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D7" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E7" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F7" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>132</v>
+        <v>328</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="C8" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D8" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F8" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>140</v>
+        <v>329</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>141</v>
+        <v>121</v>
       </c>
       <c r="C9" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D9" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F9" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>330</v>
       </c>
       <c r="B10" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="C10" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D10" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E10" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F10" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>142</v>
+        <v>331</v>
       </c>
       <c r="B11" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="C11" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D11" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F11" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>258</v>
+        <v>229</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
       <c r="C12" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D12" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E12" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F12" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>259</v>
+        <v>230</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>175</v>
       </c>
       <c r="C13" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F13" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>312</v>
+        <v>272</v>
       </c>
       <c r="B14" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
       <c r="C14" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D14" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E14" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F14" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>314</v>
+        <v>274</v>
       </c>
       <c r="B15" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
       <c r="C15" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D15" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E15" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F15" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.35">
@@ -2256,666 +2391,669 @@
         <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E16" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F16" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>203</v>
+        <v>179</v>
       </c>
       <c r="C17" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D17" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F17" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B18" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
       <c r="C18" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D18" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E18" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F18" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>316</v>
+        <v>276</v>
       </c>
       <c r="B19" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
       <c r="C19" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D19" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E19" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F19" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="C20" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D20" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F20" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="C21" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D21" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E21" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F21" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B22" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="C22" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D22" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E22" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F22" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>161</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
-        <v>162</v>
+        <v>138</v>
       </c>
       <c r="C23" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D23" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F23" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="1" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B24" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D24" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F24" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>169</v>
       </c>
       <c r="C25" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D25" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F25" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="1" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="B26" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="C26" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D26" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F26" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>157</v>
+        <v>133</v>
       </c>
       <c r="B27" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="C27" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D27" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F27" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
-        <v>160</v>
+        <v>136</v>
       </c>
       <c r="C28" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D28" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F28" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="C29" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D29" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F29" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="1" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C30" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D30" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E30" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F30" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B31" t="s">
-        <v>283</v>
+        <v>247</v>
       </c>
       <c r="C31" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D31" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F31" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B32" t="s">
-        <v>229</v>
+        <v>204</v>
       </c>
       <c r="C32" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D32" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F32" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B33" s="1" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="C33" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D33" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F33" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>92</v>
+        <v>334</v>
       </c>
       <c r="B34" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C34" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D34" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E34" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F34" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="B35" t="s">
-        <v>217</v>
+        <v>193</v>
       </c>
       <c r="C35" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D35" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="1" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D36" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E36" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F36" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B37" t="s">
-        <v>286</v>
+        <v>250</v>
       </c>
       <c r="C37" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D37" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F37" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B38" t="s">
-        <v>285</v>
+        <v>249</v>
       </c>
       <c r="C38" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D38" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F38" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B39" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C39" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D39" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F39" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B40" t="s">
-        <v>287</v>
+        <v>251</v>
       </c>
       <c r="C40" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D40" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F40" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B41" t="s">
         <v>2</v>
       </c>
       <c r="C41" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D41" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E41" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F41" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>318</v>
+        <v>278</v>
       </c>
       <c r="B42" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
       <c r="C42" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D42" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E42" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F42" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A43" s="1" t="s">
+        <v>315</v>
+      </c>
       <c r="B43" t="s">
-        <v>218</v>
+        <v>194</v>
       </c>
       <c r="C43" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D43" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E43" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F43" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>320</v>
+        <v>280</v>
       </c>
       <c r="B44" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
       <c r="C44" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D44" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E44" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F44" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>322</v>
+        <v>282</v>
       </c>
       <c r="B45" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
       <c r="C45" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D45" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E45" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F45" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B46" t="s">
-        <v>227</v>
+        <v>202</v>
       </c>
       <c r="C46" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D46" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F46" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B47" t="s">
-        <v>228</v>
+        <v>203</v>
       </c>
       <c r="C47" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D47" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F47" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>172</v>
+        <v>148</v>
       </c>
       <c r="B48" t="s">
-        <v>173</v>
+        <v>149</v>
       </c>
       <c r="C48" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D48" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F48" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>174</v>
+        <v>150</v>
       </c>
       <c r="B49" t="s">
-        <v>175</v>
+        <v>151</v>
       </c>
       <c r="C49" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D49" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F49" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="B50" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="C50" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D50" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F50" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="1" t="s">
         <v>0</v>
       </c>
@@ -2923,116 +3061,116 @@
         <v>1</v>
       </c>
       <c r="C51" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D51" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F51" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B52" t="s">
-        <v>202</v>
+        <v>178</v>
       </c>
       <c r="C52" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D52" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F52" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B53" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="C53" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D53" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E53" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F53" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A54" s="1" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="C54" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D54" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E54" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F54" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B55" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="C55" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D55" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F55" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="B56" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="C56" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D56" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F56" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.35">
@@ -3043,770 +3181,770 @@
         <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D57" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E57" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F57" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="B58" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C58" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D58" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F58" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A59" s="1" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D59" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F59" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B60" t="s">
-        <v>192</v>
+        <v>168</v>
       </c>
       <c r="C60" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D60" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F60" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>170</v>
+        <v>146</v>
       </c>
       <c r="B61" t="s">
-        <v>171</v>
+        <v>147</v>
       </c>
       <c r="C61" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D61" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F61" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="C62" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D62" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F62" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" ht="16.8" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="16.8" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>148</v>
+        <v>125</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
       <c r="C63" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D63" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F63" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B64" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="C64" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D64" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F64" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="B65" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="C65" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D65" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F65" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>128</v>
+        <v>114</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>185</v>
+        <v>161</v>
       </c>
       <c r="C66" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D66" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E66" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F66" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>113</v>
       </c>
       <c r="C67" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D67" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F67" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>187</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D68" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F68" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>298</v>
+        <v>262</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>297</v>
+        <v>261</v>
       </c>
       <c r="C69" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D69" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F69" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="B70" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D70" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E70" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F70" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="B71" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="C71" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D71" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E71" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F71" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>296</v>
+        <v>260</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>295</v>
+        <v>259</v>
       </c>
       <c r="C72" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D72" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F72" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B73" t="s">
-        <v>222</v>
+        <v>197</v>
       </c>
       <c r="C73" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D73" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E73" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F73" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B74" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="C74" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D74" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E74" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F74" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="B75" t="s">
-        <v>195</v>
+        <v>171</v>
       </c>
       <c r="C75" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D75" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F75" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>335</v>
       </c>
       <c r="B76" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C76" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D76" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E76" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F76" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B77" t="s">
-        <v>190</v>
+        <v>166</v>
       </c>
       <c r="C77" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D77" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F77" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="B78" t="s">
-        <v>226</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D78" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E78" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F78" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>349</v>
+        <v>309</v>
       </c>
       <c r="C79" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D79" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E79" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F79" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>350</v>
+        <v>310</v>
       </c>
       <c r="B80" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
       <c r="C80" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D80" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E80" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F80" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="B81" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C81" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D81" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E81" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F81" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="C82" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D82" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E82" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F82" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B83" t="s">
-        <v>197</v>
+        <v>173</v>
       </c>
       <c r="C83" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D83" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F83" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B84" t="s">
-        <v>198</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D84" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E84" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F84" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>144</v>
+        <v>325</v>
       </c>
       <c r="B85" t="s">
-        <v>145</v>
+        <v>123</v>
       </c>
       <c r="C85" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D85" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E85" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F85" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="B86" t="s">
+        <v>84</v>
+      </c>
+      <c r="C86" t="s">
+        <v>264</v>
+      </c>
+      <c r="D86" t="s">
+        <v>264</v>
+      </c>
+      <c r="E86" t="s">
+        <v>264</v>
+      </c>
+      <c r="F86" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A87" t="s">
+        <v>79</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87" t="s">
+        <v>264</v>
+      </c>
+      <c r="E87" t="s">
+        <v>264</v>
+      </c>
+      <c r="F87" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A88" t="s">
+        <v>21</v>
+      </c>
+      <c r="B88" t="s">
+        <v>39</v>
+      </c>
+      <c r="C88" t="s">
+        <v>264</v>
+      </c>
+      <c r="D88" t="s">
+        <v>264</v>
+      </c>
+      <c r="E88" t="s">
+        <v>264</v>
+      </c>
+      <c r="F88" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A89" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="C86" t="s">
-        <v>304</v>
-      </c>
-      <c r="D86" t="s">
-        <v>304</v>
-      </c>
-      <c r="E86" t="s">
-        <v>304</v>
-      </c>
-      <c r="F86" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A87" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="1" t="s">
+      <c r="B89" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="C87" t="s">
-        <v>304</v>
-      </c>
-      <c r="D87" t="s">
-        <v>304</v>
-      </c>
-      <c r="E87" t="s">
-        <v>304</v>
-      </c>
-      <c r="F87" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A88" t="s">
-        <v>29</v>
-      </c>
-      <c r="B88" t="s">
-        <v>48</v>
-      </c>
-      <c r="C88" t="s">
-        <v>304</v>
-      </c>
-      <c r="D88" t="s">
-        <v>304</v>
-      </c>
-      <c r="E88" t="s">
-        <v>304</v>
-      </c>
-      <c r="F88" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="A89" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>109</v>
-      </c>
       <c r="C89" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D89" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E89" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F89" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>324</v>
+        <v>284</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
       <c r="C90" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D90" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E90" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F90" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="B91" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
       <c r="C91" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D91" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E91" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F91" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>183</v>
+        <v>159</v>
       </c>
       <c r="B92" t="s">
-        <v>184</v>
+        <v>160</v>
       </c>
       <c r="C92" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D92" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E92" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F92" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>179</v>
+        <v>155</v>
       </c>
       <c r="B93" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
       <c r="C93" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D93" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E93" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F93" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>157</v>
       </c>
       <c r="B94" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
       <c r="C94" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D94" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E94" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F94" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="B95" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="C95" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D95" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E95" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F95" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A96" s="1" t="s">
         <v>10</v>
       </c>
@@ -3814,604 +3952,604 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D96" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F96" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>146</v>
+        <v>336</v>
       </c>
       <c r="B97" t="s">
-        <v>147</v>
+        <v>124</v>
       </c>
       <c r="C97" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D97" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E97" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F97" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>327</v>
+        <v>287</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
       <c r="C98" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D98" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E98" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F98" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B99" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
       <c r="C99" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D99" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E99" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F99" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B100" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="C100" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D100" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E100" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F100" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="B101" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C101" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D101" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E101" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F101" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A102" s="1" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="C102" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D102" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E102" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F102" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B103" t="s">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="C103" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D103" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E103" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F103" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A104" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="C104" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D104" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E104" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F104" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D105" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F105" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A106" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="B106" t="s">
-        <v>234</v>
+        <v>209</v>
       </c>
       <c r="C106" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D106" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E106" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F106" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B107" s="3" t="s">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="C107" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D107" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E107" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F107" t="s">
-        <v>309</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A108" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B108" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
       <c r="C108" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D108" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E108" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F108" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A109" t="s">
-        <v>329</v>
+        <v>289</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
       <c r="C109" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D109" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E109" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F109" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B110" s="1" t="s">
-        <v>241</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B110" s="4" t="s">
+        <v>311</v>
       </c>
       <c r="C110" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D110" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E110" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F110" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" t="s">
-        <v>76</v>
-      </c>
-      <c r="B111" t="s">
-        <v>235</v>
+        <v>65</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>312</v>
       </c>
       <c r="C111" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D111" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E111" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F111" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B112" s="1" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="C112" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D112" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F112" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="1" t="s">
-        <v>177</v>
+        <v>153</v>
       </c>
       <c r="B113" t="s">
-        <v>178</v>
+        <v>154</v>
       </c>
       <c r="C113" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D113" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E113" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F113" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="1" t="s">
-        <v>275</v>
+        <v>240</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>176</v>
+        <v>152</v>
       </c>
       <c r="C114" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D114" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E114" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F114" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B115" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C115" t="s">
         <v>266</v>
       </c>
-      <c r="B115" t="s">
-        <v>18</v>
-      </c>
-      <c r="C115" t="s">
-        <v>306</v>
-      </c>
       <c r="D115" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E115" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F115" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="1" t="s">
-        <v>267</v>
+        <v>337</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>338</v>
       </c>
       <c r="C116" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D116" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E116" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F116" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="1" t="s">
-        <v>268</v>
+        <v>339</v>
       </c>
       <c r="B117" t="s">
-        <v>24</v>
+        <v>340</v>
       </c>
       <c r="C117" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D117" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E117" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F117" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A118" s="1" t="s">
-        <v>269</v>
+        <v>341</v>
       </c>
       <c r="B118" t="s">
-        <v>19</v>
+        <v>342</v>
       </c>
       <c r="C118" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D118" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E118" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F118" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A119" s="1" t="s">
-        <v>270</v>
+        <v>343</v>
       </c>
       <c r="B119" t="s">
-        <v>20</v>
+        <v>344</v>
       </c>
       <c r="C119" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D119" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E119" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F119" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="1" t="s">
-        <v>271</v>
+        <v>238</v>
       </c>
       <c r="B120" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C120" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D120" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E120" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F120" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="1" t="s">
-        <v>272</v>
+        <v>345</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>346</v>
       </c>
       <c r="C121" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D121" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E121" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F121" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D122" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E122" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F122" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="1" t="s">
-        <v>274</v>
+        <v>347</v>
       </c>
       <c r="B123" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C123" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D123" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E123" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F123" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A124" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B124" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="C124" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E124" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F124" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A125" t="s">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="B125" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="C125" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D125" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E125" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F125" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A126" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B126" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
       <c r="C126" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D126" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E126" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F126" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.35">
@@ -4419,253 +4557,253 @@
         <v>7</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="C127" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D127" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E127" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F127" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="1" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
       <c r="C128" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D128" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E128" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F128" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="1" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="C129" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D129" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E129" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F129" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="1" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D130" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E130" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F130" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="B131" t="s">
-        <v>233</v>
+        <v>208</v>
       </c>
       <c r="C131" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D131" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E131" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F131" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B132" s="3" t="s">
-        <v>282</v>
+        <v>246</v>
       </c>
       <c r="C132" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D132" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E132" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F132" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A133" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="C133" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D133" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E133" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F133" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A134" s="1" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
       <c r="C134" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D134" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E134" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F134" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A135" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B135" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
       <c r="C135" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D135" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E135" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F135" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" t="s">
-        <v>331</v>
+        <v>291</v>
       </c>
       <c r="B136" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
       <c r="C136" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D136" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E136" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>63</v>
+        <v>52</v>
+      </c>
+      <c r="B137" s="4" t="s">
+        <v>314</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="D137" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="E137" t="s">
-        <v>306</v>
+        <v>266</v>
       </c>
       <c r="F137" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="B138" t="s">
-        <v>64</v>
+        <v>53</v>
       </c>
       <c r="C138" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D138" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E138" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F138" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B139" t="s">
-        <v>201</v>
+        <v>177</v>
       </c>
       <c r="C139" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D139" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.35">
@@ -4673,113 +4811,119 @@
         <v>11</v>
       </c>
       <c r="B140" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
       <c r="C140" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D140" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E140" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F140" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" t="s">
-        <v>129</v>
+        <v>333</v>
       </c>
       <c r="B141" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C141" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D141" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E141" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F141" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B142" t="s">
-        <v>276</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A142" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" s="3" t="s">
+        <v>318</v>
       </c>
       <c r="C142" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D142" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E142" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F142" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B143" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C143" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D143" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E143" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F143" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" t="s">
-        <v>116</v>
+        <v>316</v>
       </c>
       <c r="B144" t="s">
-        <v>117</v>
+        <v>104</v>
       </c>
       <c r="C144" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D144" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E144" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F144" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A145" t="s">
+        <v>320</v>
+      </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>242</v>
       </c>
       <c r="C145" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D145" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E145" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F145" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.35">
@@ -4787,604 +4931,597 @@
         <v>22</v>
       </c>
       <c r="B146" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
       <c r="C146" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D146" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E146" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F146" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" t="s">
-        <v>118</v>
+        <v>317</v>
       </c>
       <c r="B147" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C147" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D147" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E147" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F147" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A148" t="s">
+        <v>321</v>
+      </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>241</v>
       </c>
       <c r="C148" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D148" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E148" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F148" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B149" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C149" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D149" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E149" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F149" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A150" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B150" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
       <c r="C150" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D150" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E150" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F150" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A151" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="B151" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="C151" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D151" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E151" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F151" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A152" s="1" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="C152" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D152" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E152" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F152" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A153" t="s">
-        <v>292</v>
+        <v>256</v>
       </c>
       <c r="B153" t="s">
-        <v>291</v>
+        <v>255</v>
       </c>
       <c r="C153" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D153" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E153" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F153" t="s">
-        <v>308</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="B154" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
       <c r="C154" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D154" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E154" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F154" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="B155" t="s">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="C155" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D155" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E155" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F155" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="C156" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D156" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F156" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A157" s="1" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="B157" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C157" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D157" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F157" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A158" s="1" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="B158" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
       <c r="C158" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D158" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E158" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F158" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A159" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B159" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C159" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D159" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E159" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F159" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A160" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
       <c r="B160" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
       <c r="C160" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D160" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E160" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F160" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A161" s="1" t="s">
+        <v>322</v>
+      </c>
       <c r="B161" t="s">
-        <v>219</v>
+        <v>195</v>
       </c>
       <c r="C161" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D161" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E161" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F161" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B162" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C162" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D162" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E162" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F162" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B163" t="s">
-        <v>200</v>
+        <v>176</v>
       </c>
       <c r="C163" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D163" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E163" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F163" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="1" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C164" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D164" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E164" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F164" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
-      <c r="B165" t="s">
-        <v>221</v>
+        <v>267</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A165" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>323</v>
       </c>
       <c r="C165" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="D165" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="E165" t="s">
-        <v>303</v>
+        <v>263</v>
       </c>
       <c r="F165" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="B166" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
       <c r="C166" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D166" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E166" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F166" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B167" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C167" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D167" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E167" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F167" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B168" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
       <c r="C168" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D168" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E168" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F168" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B169" t="s">
-        <v>225</v>
+        <v>200</v>
       </c>
       <c r="C169" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D169" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E169" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F169" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="B170" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
       <c r="C170" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="D170" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="E170" t="s">
-        <v>305</v>
+        <v>265</v>
       </c>
       <c r="F170" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B171" t="s">
-        <v>224</v>
+        <v>199</v>
       </c>
       <c r="C171" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D171" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E171" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F171" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B172" t="s">
-        <v>220</v>
+        <v>196</v>
       </c>
       <c r="C172" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D172" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E172" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F172" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B173" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C173" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D173" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E173" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F173" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B174" t="s">
-        <v>223</v>
+        <v>198</v>
       </c>
       <c r="C174" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D174" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E174" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F174" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6" hidden="1" x14ac:dyDescent="0.35">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A175" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B175" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="C175" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="D175" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="E175" t="s">
-        <v>304</v>
+        <v>264</v>
       </c>
       <c r="F175" t="s">
-        <v>307</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F175" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="H线路"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="3">
-      <filters>
-        <filter val="H线路"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="4">
-      <filters>
-        <filter val="H线路"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F175" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B179:B1048576 B163:B170 B1:B161 A172:B178">
-    <cfRule type="duplicateValues" dxfId="3" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B132" r:id="rId1" display="https://raw.githubusercontent.com/ZTHA000/tvbox/main/gyckname.json" xr:uid="{D46703AA-5C92-4208-9223-CD8A5269F14F}"/>
@@ -5393,9 +5530,16 @@
     <hyperlink ref="B2" r:id="rId4" xr:uid="{C3698C95-A48D-4B6B-8B12-D4AC68DFB03F}"/>
     <hyperlink ref="B98" r:id="rId5" xr:uid="{14EDA0C8-5C48-4875-B425-7C24285E997C}"/>
     <hyperlink ref="B79" r:id="rId6" xr:uid="{F593BEBF-3ED8-4850-9A1F-A074DB9727EB}"/>
+    <hyperlink ref="B1" r:id="rId7" xr:uid="{64291F26-7B97-499B-82A9-DC011530697E}"/>
+    <hyperlink ref="B110" r:id="rId8" xr:uid="{6A80636E-B38A-4F10-A772-2F8CF7C45A6F}"/>
+    <hyperlink ref="B111" r:id="rId9" xr:uid="{368F0023-5E71-4E22-9B49-C5CEDAC65DAF}"/>
+    <hyperlink ref="B115" r:id="rId10" xr:uid="{0AAA8FFD-9218-49F1-91A1-E15F15A8A5EA}"/>
+    <hyperlink ref="B137" r:id="rId11" xr:uid="{D53CA925-89FF-430F-AACF-135A1041A897}"/>
+    <hyperlink ref="B142" r:id="rId12" xr:uid="{47D487B9-2D2B-42A4-93DA-E7E23EE0A9FB}"/>
+    <hyperlink ref="B165" r:id="rId13" xr:uid="{275C1FB1-DE61-4C46-9823-1C2F9E7F16E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId14"/>
   <headerFooter>
     <oddFooter>&amp;C_x000D_&amp;1#&amp;"Arial"&amp;8&amp;K000000 Internal</oddFooter>
   </headerFooter>
@@ -5404,93 +5548,1115 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDC234C8-30F1-4CE5-8A90-B3FAA2AB9F61}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B8"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="31.26953125" customWidth="1"/>
-    <col min="3" max="6" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.6328125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="23.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>299</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+        <v>348</v>
+      </c>
+      <c r="B1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>300</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+        <v>350</v>
+      </c>
+      <c r="B2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C2" t="s">
+        <v>264</v>
+      </c>
+      <c r="D2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>352</v>
+      </c>
+      <c r="B3" t="s">
+        <v>353</v>
+      </c>
+      <c r="C3" t="s">
+        <v>264</v>
+      </c>
+      <c r="D3" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>354</v>
+      </c>
+      <c r="B4" t="s">
+        <v>355</v>
+      </c>
+      <c r="C4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+        <v>68</v>
+      </c>
+      <c r="B5" t="s">
+        <v>356</v>
+      </c>
+      <c r="C5" t="s">
+        <v>264</v>
+      </c>
+      <c r="D5" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>54</v>
+        <v>357</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
-        <v>255</v>
+        <v>358</v>
+      </c>
+      <c r="C6" t="s">
+        <v>264</v>
+      </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>359</v>
       </c>
       <c r="B7" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" t="s">
+        <v>264</v>
+      </c>
+      <c r="D7" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" t="s">
+        <v>362</v>
+      </c>
+      <c r="C8" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>363</v>
+      </c>
+      <c r="B9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C9" t="s">
+        <v>264</v>
+      </c>
+      <c r="D9" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>365</v>
+      </c>
+      <c r="B10" t="s">
+        <v>366</v>
+      </c>
+      <c r="C10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D10" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>367</v>
+      </c>
+      <c r="B11" t="s">
+        <v>368</v>
+      </c>
+      <c r="C11" t="s">
+        <v>264</v>
+      </c>
+      <c r="D11" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>369</v>
+      </c>
+      <c r="C12" t="s">
+        <v>264</v>
+      </c>
+      <c r="D12" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>370</v>
+      </c>
+      <c r="B13" t="s">
+        <v>371</v>
+      </c>
+      <c r="C13" t="s">
+        <v>264</v>
+      </c>
+      <c r="D13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B14" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" t="s">
+        <v>264</v>
+      </c>
+      <c r="D14" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>374</v>
+      </c>
+      <c r="B15" t="s">
+        <v>375</v>
+      </c>
+      <c r="C15" t="s">
+        <v>264</v>
+      </c>
+      <c r="D15" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B16" t="s">
+        <v>377</v>
+      </c>
+      <c r="C16" t="s">
+        <v>264</v>
+      </c>
+      <c r="D16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>378</v>
+      </c>
+      <c r="B17" t="s">
+        <v>379</v>
+      </c>
+      <c r="C17" t="s">
+        <v>264</v>
+      </c>
+      <c r="D17" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>380</v>
+      </c>
+      <c r="B18" t="s">
+        <v>381</v>
+      </c>
+      <c r="C18" t="s">
+        <v>264</v>
+      </c>
+      <c r="D18" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>382</v>
+      </c>
+      <c r="B19" t="s">
+        <v>383</v>
+      </c>
+      <c r="C19" t="s">
+        <v>264</v>
+      </c>
+      <c r="D19" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>384</v>
+      </c>
+      <c r="B20" t="s">
+        <v>385</v>
+      </c>
+      <c r="C20" t="s">
+        <v>264</v>
+      </c>
+      <c r="D20" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>386</v>
+      </c>
+      <c r="B21" t="s">
+        <v>387</v>
+      </c>
+      <c r="C21" t="s">
+        <v>264</v>
+      </c>
+      <c r="D21" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>388</v>
+      </c>
+      <c r="B22" t="s">
+        <v>389</v>
+      </c>
+      <c r="C22" t="s">
+        <v>264</v>
+      </c>
+      <c r="D22" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>390</v>
+      </c>
+      <c r="B23" t="s">
+        <v>391</v>
+      </c>
+      <c r="C23" t="s">
+        <v>264</v>
+      </c>
+      <c r="D23" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" t="s">
+        <v>393</v>
+      </c>
+      <c r="C24" t="s">
+        <v>264</v>
+      </c>
+      <c r="D24" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="B25" t="s">
+        <v>394</v>
+      </c>
+      <c r="C25" t="s">
+        <v>264</v>
+      </c>
+      <c r="D25" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>395</v>
+      </c>
+      <c r="B26" t="s">
+        <v>394</v>
+      </c>
+      <c r="C26" t="s">
+        <v>264</v>
+      </c>
+      <c r="D26" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>396</v>
+      </c>
+      <c r="B27" t="s">
+        <v>397</v>
+      </c>
+      <c r="C27" t="s">
+        <v>264</v>
+      </c>
+      <c r="D27" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>398</v>
+      </c>
+      <c r="B28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C28" t="s">
+        <v>264</v>
+      </c>
+      <c r="D28" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>400</v>
+      </c>
+      <c r="B29" t="s">
+        <v>401</v>
+      </c>
+      <c r="C29" t="s">
+        <v>264</v>
+      </c>
+      <c r="D29" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>402</v>
+      </c>
+      <c r="B30" t="s">
+        <v>403</v>
+      </c>
+      <c r="C30" t="s">
+        <v>264</v>
+      </c>
+      <c r="D30" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>404</v>
+      </c>
+      <c r="B31" t="s">
+        <v>405</v>
+      </c>
+      <c r="C31" t="s">
+        <v>264</v>
+      </c>
+      <c r="D31" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>406</v>
+      </c>
+      <c r="B32" t="s">
+        <v>407</v>
+      </c>
+      <c r="C32" t="s">
+        <v>264</v>
+      </c>
+      <c r="D32" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>408</v>
+      </c>
+      <c r="B33" t="s">
+        <v>409</v>
+      </c>
+      <c r="C33" t="s">
+        <v>264</v>
+      </c>
+      <c r="D33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>410</v>
+      </c>
+      <c r="B34" t="s">
+        <v>411</v>
+      </c>
+      <c r="C34" t="s">
+        <v>264</v>
+      </c>
+      <c r="D34" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>412</v>
+      </c>
+      <c r="B35" t="s">
+        <v>413</v>
+      </c>
+      <c r="C35" t="s">
+        <v>264</v>
+      </c>
+      <c r="D35" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>414</v>
+      </c>
+      <c r="B36" t="s">
+        <v>415</v>
+      </c>
+      <c r="C36" t="s">
+        <v>264</v>
+      </c>
+      <c r="D36" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>416</v>
+      </c>
+      <c r="B37" t="s">
+        <v>417</v>
+      </c>
+      <c r="C37" t="s">
+        <v>264</v>
+      </c>
+      <c r="D37" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>418</v>
+      </c>
+      <c r="B38" t="s">
+        <v>419</v>
+      </c>
+      <c r="C38" t="s">
+        <v>264</v>
+      </c>
+      <c r="D38" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>420</v>
+      </c>
+      <c r="B39" t="s">
+        <v>421</v>
+      </c>
+      <c r="C39" t="s">
+        <v>264</v>
+      </c>
+      <c r="D39" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>326</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C40" t="s">
+        <v>263</v>
+      </c>
+      <c r="D40" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C41" t="s">
+        <v>263</v>
+      </c>
+      <c r="D41" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>327</v>
+      </c>
+      <c r="B42" t="s">
+        <v>424</v>
+      </c>
+      <c r="C42" t="s">
+        <v>263</v>
+      </c>
+      <c r="D42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>328</v>
+      </c>
+      <c r="B43" t="s">
+        <v>117</v>
+      </c>
+      <c r="C43" t="s">
+        <v>263</v>
+      </c>
+      <c r="D43" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" t="s">
+        <v>425</v>
+      </c>
+      <c r="C44" t="s">
+        <v>263</v>
+      </c>
+      <c r="D44" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>330</v>
+      </c>
+      <c r="B45" t="s">
+        <v>119</v>
+      </c>
+      <c r="C45" t="s">
+        <v>263</v>
+      </c>
+      <c r="D45" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>331</v>
+      </c>
+      <c r="B46" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" t="s">
+        <v>263</v>
+      </c>
+      <c r="D46" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>334</v>
+      </c>
+      <c r="B47" t="s">
+        <v>81</v>
+      </c>
+      <c r="C47" t="s">
+        <v>263</v>
+      </c>
+      <c r="D47" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" t="s">
+        <v>73</v>
+      </c>
+      <c r="C48" t="s">
+        <v>263</v>
+      </c>
+      <c r="D48" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>426</v>
+      </c>
+      <c r="B49" t="s">
+        <v>194</v>
+      </c>
+      <c r="C49" t="s">
+        <v>263</v>
+      </c>
+      <c r="D49" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>30</v>
+      </c>
+      <c r="B50" t="s">
+        <v>197</v>
+      </c>
+      <c r="C50" t="s">
+        <v>263</v>
+      </c>
+      <c r="D50" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>335</v>
+      </c>
+      <c r="B51" t="s">
+        <v>116</v>
+      </c>
+      <c r="C51" t="s">
+        <v>263</v>
+      </c>
+      <c r="D51" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>427</v>
+      </c>
+      <c r="B52" t="s">
+        <v>123</v>
+      </c>
+      <c r="C52" t="s">
+        <v>263</v>
+      </c>
+      <c r="D52" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>428</v>
+      </c>
+      <c r="B53" t="s">
+        <v>160</v>
+      </c>
+      <c r="C53" t="s">
+        <v>263</v>
+      </c>
+      <c r="D53" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>336</v>
+      </c>
+      <c r="B54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" t="s">
+        <v>263</v>
+      </c>
+      <c r="D54" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>429</v>
+      </c>
+      <c r="B55" t="s">
+        <v>154</v>
+      </c>
+      <c r="C55" t="s">
+        <v>263</v>
+      </c>
+      <c r="D55" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>430</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" t="s">
+        <v>263</v>
+      </c>
+      <c r="D56" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>337</v>
+      </c>
+      <c r="B57" t="s">
+        <v>338</v>
+      </c>
+      <c r="C57" t="s">
+        <v>264</v>
+      </c>
+      <c r="D57" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>339</v>
+      </c>
+      <c r="B58" t="s">
+        <v>340</v>
+      </c>
+      <c r="C58" t="s">
+        <v>264</v>
+      </c>
+      <c r="D58" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>341</v>
+      </c>
+      <c r="B59" t="s">
+        <v>342</v>
+      </c>
+      <c r="C59" t="s">
+        <v>264</v>
+      </c>
+      <c r="D59" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>343</v>
+      </c>
+      <c r="B60" t="s">
+        <v>344</v>
+      </c>
+      <c r="C60" t="s">
+        <v>264</v>
+      </c>
+      <c r="D60" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>238</v>
+      </c>
+      <c r="B61" t="s">
+        <v>16</v>
+      </c>
+      <c r="C61" t="s">
+        <v>263</v>
+      </c>
+      <c r="D61" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>345</v>
+      </c>
+      <c r="B62" t="s">
+        <v>346</v>
+      </c>
+      <c r="C62" t="s">
+        <v>264</v>
+      </c>
+      <c r="D62" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>347</v>
+      </c>
+      <c r="B63" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A8" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
+      <c r="C63" t="s">
+        <v>263</v>
+      </c>
+      <c r="D63" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>332</v>
+      </c>
+      <c r="B64" t="s">
+        <v>212</v>
+      </c>
+      <c r="C64" t="s">
+        <v>263</v>
+      </c>
+      <c r="D64" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>68</v>
+      </c>
+      <c r="B65" t="s">
+        <v>210</v>
+      </c>
+      <c r="C65" t="s">
+        <v>263</v>
+      </c>
+      <c r="D65" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>56</v>
+      </c>
+      <c r="B66" t="s">
+        <v>208</v>
+      </c>
+      <c r="C66" t="s">
+        <v>263</v>
+      </c>
+      <c r="D66" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>51</v>
+      </c>
+      <c r="B67" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" t="s">
+        <v>263</v>
+      </c>
+      <c r="D67" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>333</v>
+      </c>
+      <c r="B68" t="s">
+        <v>115</v>
+      </c>
+      <c r="C68" t="s">
+        <v>263</v>
+      </c>
+      <c r="D68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>431</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>433</v>
+      </c>
+      <c r="B70" t="s">
+        <v>104</v>
+      </c>
+      <c r="C70" t="s">
+        <v>263</v>
+      </c>
+      <c r="D70" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>434</v>
+      </c>
+      <c r="B71" t="s">
+        <v>242</v>
+      </c>
+      <c r="C71" t="s">
+        <v>263</v>
+      </c>
+      <c r="D71" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>435</v>
+      </c>
+      <c r="B72" t="s">
+        <v>105</v>
+      </c>
+      <c r="C72" t="s">
+        <v>263</v>
+      </c>
+      <c r="D72" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>436</v>
+      </c>
+      <c r="B73" t="s">
+        <v>241</v>
+      </c>
+      <c r="C73" t="s">
+        <v>263</v>
+      </c>
+      <c r="D73" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>78</v>
+      </c>
+      <c r="B74" t="s">
+        <v>77</v>
+      </c>
+      <c r="C74" t="s">
+        <v>263</v>
+      </c>
+      <c r="D74" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>66</v>
+      </c>
+      <c r="B75" t="s">
+        <v>67</v>
+      </c>
+      <c r="C75" t="s">
+        <v>263</v>
+      </c>
+      <c r="D75" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>437</v>
+      </c>
+      <c r="B76" t="s">
+        <v>195</v>
+      </c>
+      <c r="C76" t="s">
+        <v>263</v>
+      </c>
+      <c r="D76" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>438</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C77" t="s">
+        <v>263</v>
+      </c>
+      <c r="D77" t="s">
+        <v>267</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B3:B8">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  <conditionalFormatting sqref="B40:B77">
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B3:B8">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  <conditionalFormatting sqref="B1">
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="2"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B40" r:id="rId1" xr:uid="{EC1A7440-C816-4267-91DB-00B01603E505}"/>
+    <hyperlink ref="B69" r:id="rId2" xr:uid="{807E2FCB-FE86-4FD0-BEEF-A185F549D753}"/>
+    <hyperlink ref="B77" r:id="rId3" xr:uid="{BDB2D06E-EF0F-4BAD-8DDA-D4267929D807}"/>
+    <hyperlink ref="B41" r:id="rId4" xr:uid="{DB9FC1CE-8419-4EFD-8A12-7F7757A9B5B1}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -5498,8 +6664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22092631-B2AD-45D5-B3E9-63A713F09915}">
   <dimension ref="A1:B54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A46" sqref="A1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -5509,50 +6675,50 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
       <c r="B1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="B2" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>252</v>
+        <v>225</v>
       </c>
       <c r="B3" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>167</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>311</v>
+        <v>271</v>
       </c>
       <c r="B5" t="s">
-        <v>214</v>
+        <v>190</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>313</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>205</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -5565,47 +6731,47 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>315</v>
+        <v>275</v>
       </c>
       <c r="B9" t="s">
-        <v>213</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="B10" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="B13" t="s">
         <v>2</v>
@@ -5613,34 +6779,34 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>317</v>
+        <v>277</v>
       </c>
       <c r="B14" t="s">
-        <v>216</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>319</v>
+        <v>279</v>
       </c>
       <c r="B15" t="s">
-        <v>215</v>
+        <v>191</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>321</v>
+        <v>281</v>
       </c>
       <c r="B16" t="s">
-        <v>288</v>
+        <v>252</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -5653,130 +6819,130 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="B20" t="s">
-        <v>212</v>
+        <v>188</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="B21" t="s">
-        <v>208</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>323</v>
+        <v>283</v>
       </c>
       <c r="B23" t="s">
-        <v>206</v>
+        <v>182</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>290</v>
+        <v>254</v>
       </c>
       <c r="B24" t="s">
-        <v>289</v>
+        <v>253</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>345</v>
+        <v>305</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B26" t="s">
-        <v>182</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>326</v>
+        <v>286</v>
       </c>
       <c r="B27" t="s">
-        <v>284</v>
+        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="B29" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>165</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
-        <v>166</v>
+        <v>142</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>328</v>
+        <v>288</v>
       </c>
       <c r="B31" t="s">
-        <v>281</v>
+        <v>245</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="B32" t="s">
-        <v>232</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>254</v>
+        <v>227</v>
       </c>
       <c r="B34" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -5784,47 +6950,47 @@
         <v>7</v>
       </c>
       <c r="B35" t="s">
-        <v>347</v>
+        <v>307</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>104</v>
+        <v>92</v>
       </c>
       <c r="B36" t="s">
-        <v>105</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>100</v>
+        <v>88</v>
       </c>
       <c r="B37" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>115</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>91</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>330</v>
+        <v>290</v>
       </c>
       <c r="B40" t="s">
-        <v>230</v>
+        <v>205</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -5832,15 +6998,15 @@
         <v>11</v>
       </c>
       <c r="B41" t="s">
-        <v>210</v>
+        <v>186</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="B42" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -5848,101 +7014,593 @@
         <v>22</v>
       </c>
       <c r="B43" t="s">
-        <v>231</v>
+        <v>206</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="B44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>167</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>168</v>
+        <v>144</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="B46" t="s">
-        <v>211</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>348</v>
+        <v>308</v>
       </c>
       <c r="B47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="B48" t="s">
-        <v>209</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="B50" t="s">
-        <v>207</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="B52" t="s">
-        <v>189</v>
+        <v>165</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>253</v>
+        <v>226</v>
       </c>
       <c r="B53" t="s">
-        <v>196</v>
+        <v>172</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>294</v>
+        <v>258</v>
       </c>
       <c r="B54" t="s">
-        <v>293</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541C4F4-0398-447C-A3D0-93664596F62A}">
+  <dimension ref="A1:D33"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="16.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="93.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="C1" t="s">
+        <v>263</v>
+      </c>
+      <c r="D1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="C2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D2" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>327</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+      <c r="C3" t="s">
+        <v>263</v>
+      </c>
+      <c r="D3" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>328</v>
+      </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>329</v>
+      </c>
+      <c r="B5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" t="s">
+        <v>263</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C6" t="s">
+        <v>263</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>331</v>
+      </c>
+      <c r="B7" t="s">
+        <v>122</v>
+      </c>
+      <c r="C7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>334</v>
+      </c>
+      <c r="B8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" t="s">
+        <v>263</v>
+      </c>
+      <c r="D8" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" t="s">
+        <v>263</v>
+      </c>
+      <c r="D9" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>426</v>
+      </c>
+      <c r="B10" t="s">
+        <v>194</v>
+      </c>
+      <c r="C10" t="s">
+        <v>263</v>
+      </c>
+      <c r="D10" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C11" t="s">
+        <v>263</v>
+      </c>
+      <c r="D11" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>335</v>
+      </c>
+      <c r="B12" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" t="s">
+        <v>263</v>
+      </c>
+      <c r="D12" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" t="s">
+        <v>123</v>
+      </c>
+      <c r="C13" t="s">
+        <v>263</v>
+      </c>
+      <c r="D13" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B14" t="s">
+        <v>160</v>
+      </c>
+      <c r="C14" t="s">
+        <v>263</v>
+      </c>
+      <c r="D14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>336</v>
+      </c>
+      <c r="B15" t="s">
+        <v>124</v>
+      </c>
+      <c r="C15" t="s">
+        <v>263</v>
+      </c>
+      <c r="D15" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C16" t="s">
+        <v>263</v>
+      </c>
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>430</v>
+      </c>
+      <c r="B17" t="s">
+        <v>152</v>
+      </c>
+      <c r="C17" t="s">
+        <v>263</v>
+      </c>
+      <c r="D17" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>238</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18" t="s">
+        <v>263</v>
+      </c>
+      <c r="D18" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>347</v>
+      </c>
+      <c r="B19" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" t="s">
+        <v>263</v>
+      </c>
+      <c r="D19" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>212</v>
+      </c>
+      <c r="C20" t="s">
+        <v>263</v>
+      </c>
+      <c r="D20" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" t="s">
+        <v>210</v>
+      </c>
+      <c r="C21" t="s">
+        <v>263</v>
+      </c>
+      <c r="D21" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" t="s">
+        <v>208</v>
+      </c>
+      <c r="C22" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" t="s">
+        <v>263</v>
+      </c>
+      <c r="D23" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>333</v>
+      </c>
+      <c r="B24" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" t="s">
+        <v>263</v>
+      </c>
+      <c r="D24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>431</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="C25" t="s">
+        <v>263</v>
+      </c>
+      <c r="D25" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>433</v>
+      </c>
+      <c r="B26" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" t="s">
+        <v>263</v>
+      </c>
+      <c r="D26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>434</v>
+      </c>
+      <c r="B27" t="s">
+        <v>242</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>435</v>
+      </c>
+      <c r="B28" t="s">
+        <v>105</v>
+      </c>
+      <c r="C28" t="s">
+        <v>263</v>
+      </c>
+      <c r="D28" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>436</v>
+      </c>
+      <c r="B29" t="s">
+        <v>241</v>
+      </c>
+      <c r="C29" t="s">
+        <v>263</v>
+      </c>
+      <c r="D29" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>78</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D30" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>263</v>
+      </c>
+      <c r="D31" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>437</v>
+      </c>
+      <c r="B32" t="s">
+        <v>195</v>
+      </c>
+      <c r="C32" t="s">
+        <v>263</v>
+      </c>
+      <c r="D32" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>438</v>
+      </c>
+      <c r="B33" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="C33" t="s">
+        <v>263</v>
+      </c>
+      <c r="D33" t="s">
+        <v>267</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B33">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{E18B88D4-3201-4227-801D-01AD63472D4B}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{6172E15C-5197-41F2-8B25-AB7EBE856571}"/>
+    <hyperlink ref="B25" r:id="rId3" xr:uid="{482B9B20-67BD-4B7C-936F-0F9997A29481}"/>
+    <hyperlink ref="B33" r:id="rId4" xr:uid="{5C0BF381-BF84-4C1F-BA36-23E2565903E3}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb9c4ddb314f6b22/Learn/pythonLearn/TvBox/tvbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="69" documentId="13_ncr:1_{F49EAE0F-5F81-4657-AA36-9645891ACB90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F7D73DA3-287E-44AC-9294-B73342B15E99}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B2B96E-F1A0-470C-B0F7-CAC5DA232397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2072" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="722">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -2542,7 +2542,27 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="10">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2636,14 +2656,10 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2681,7 +2697,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2787,7 +2803,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2929,7 +2945,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6382,10 +6398,10 @@
   <autoFilter ref="A1:F175" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B1048576 B163:B170 B1:B161 A172:B178">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B132" r:id="rId1" display="https://raw.githubusercontent.com/ZTHA000/tvbox/main/gyckname.json" xr:uid="{D46703AA-5C92-4208-9223-CD8A5269F14F}"/>
@@ -7506,12 +7522,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B77">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B40" r:id="rId1" xr:uid="{EC1A7440-C816-4267-91DB-00B01603E505}"/>
@@ -8946,10 +8962,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541C4F4-0398-447C-A3D0-93664596F62A}">
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection sqref="A1:XFD21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -8962,8 +8978,8 @@
       <c r="A1" t="s">
         <v>218</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>721</v>
+      <c r="B1" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -8976,153 +8992,771 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>219</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>419</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="B6" t="s">
-        <v>420</v>
+        <v>425</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="B7" t="s">
-        <v>170</v>
+        <v>427</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>252</v>
+        <v>429</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>441</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>424</v>
+        <v>444</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>443</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>426</v>
+        <v>459</v>
       </c>
       <c r="B11" t="s">
-        <v>425</v>
+        <v>458</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="B12" t="s">
-        <v>427</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>254</v>
       </c>
       <c r="B13" t="s">
-        <v>101</v>
+        <v>461</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>431</v>
+        <v>466</v>
       </c>
       <c r="B14" t="s">
-        <v>430</v>
+        <v>465</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>432</v>
+        <v>468</v>
       </c>
       <c r="B15" t="s">
-        <v>255</v>
+        <v>467</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>434</v>
+        <v>469</v>
       </c>
       <c r="B16" t="s">
-        <v>433</v>
+        <v>172</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>436</v>
+        <v>473</v>
       </c>
       <c r="B17" t="s">
-        <v>435</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>438</v>
+        <v>481</v>
       </c>
       <c r="B18" t="s">
-        <v>437</v>
+        <v>480</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>440</v>
+        <v>485</v>
       </c>
       <c r="B19" t="s">
-        <v>439</v>
+        <v>484</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>442</v>
+        <v>487</v>
       </c>
       <c r="B20" t="s">
-        <v>441</v>
+        <v>486</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="6" t="s">
+        <v>497</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>498</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B25" s="5"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B33" s="5"/>
+      <c r="A25" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="B25" s="5" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="6" t="s">
+        <v>509</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="6" t="s">
+        <v>511</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="6" t="s">
+        <v>512</v>
+      </c>
+      <c r="B29" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" s="6" t="s">
+        <v>514</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" s="6" t="s">
+        <v>527</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" s="6" t="s">
+        <v>531</v>
+      </c>
+      <c r="B34" s="6" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B35" s="6" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" s="6" t="s">
+        <v>533</v>
+      </c>
+      <c r="B36" s="6" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B37" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B38" s="6" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" s="6" t="s">
+        <v>541</v>
+      </c>
+      <c r="B39" s="6" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" s="6" t="s">
+        <v>545</v>
+      </c>
+      <c r="B40" s="6" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="B41" s="6" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" s="6" t="s">
+        <v>550</v>
+      </c>
+      <c r="B42" s="6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="B43" s="6" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" s="6" t="s">
+        <v>554</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" s="6" t="s">
+        <v>556</v>
+      </c>
+      <c r="B45" s="6" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" s="6" t="s">
+        <v>560</v>
+      </c>
+      <c r="B46" s="6" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" s="6" t="s">
+        <v>561</v>
+      </c>
+      <c r="B47" s="6" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="B48" s="6" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" s="6" t="s">
+        <v>566</v>
+      </c>
+      <c r="B49" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" s="6" t="s">
+        <v>590</v>
+      </c>
+      <c r="B50" s="6" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" s="6" t="s">
+        <v>593</v>
+      </c>
+      <c r="B52" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" s="6" t="s">
+        <v>594</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" s="6" t="s">
+        <v>596</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" s="6" t="s">
+        <v>602</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="B59" s="6" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="B60" s="6" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" s="6" t="s">
+        <v>616</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="B62" s="6" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="B63" s="6" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="B64" s="6" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" s="6" t="s">
+        <v>626</v>
+      </c>
+      <c r="B65" s="6" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="B66" s="6" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" s="6" t="s">
+        <v>631</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" s="6" t="s">
+        <v>634</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B69" s="6" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B70" s="6" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B71" s="6" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B72" s="6" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="B73" s="6" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" s="6" t="s">
+        <v>658</v>
+      </c>
+      <c r="B74" s="6" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A75" s="6" t="s">
+        <v>660</v>
+      </c>
+      <c r="B75" s="6" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A76" s="6" t="s">
+        <v>662</v>
+      </c>
+      <c r="B76" s="6" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A77" s="6" t="s">
+        <v>664</v>
+      </c>
+      <c r="B77" s="6" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A78" s="6" t="s">
+        <v>668</v>
+      </c>
+      <c r="B78" s="6" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A79" s="6" t="s">
+        <v>670</v>
+      </c>
+      <c r="B79" s="6" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A80" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="B80" s="6" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A81" s="6" t="s">
+        <v>674</v>
+      </c>
+      <c r="B81" s="6" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A82" s="6" t="s">
+        <v>677</v>
+      </c>
+      <c r="B82" s="6" t="s">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A83" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A84" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A85" s="6" t="s">
+        <v>687</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A86" s="6" t="s">
+        <v>692</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A87" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="B87" s="6" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A88" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A89" s="6" t="s">
+        <v>702</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A90" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A91" s="6" t="s">
+        <v>706</v>
+      </c>
+      <c r="B91" s="6" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A92" s="6" t="s">
+        <v>708</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A93" s="6" t="s">
+        <v>710</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A94" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B94" s="6" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A95" s="6" t="s">
+        <v>714</v>
+      </c>
+      <c r="B95" s="6" t="s">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A96" s="6" t="s">
+        <v>716</v>
+      </c>
+      <c r="B96" s="6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A97" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="B97" s="6" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A98" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="B98" s="6" t="s">
+        <v>719</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -9130,9 +9764,6 @@
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" xr:uid="{1C0BA01B-F1C4-4C57-9B2D-2E0FE820B2AB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb9c4ddb314f6b22/Learn/pythonLearn/TvBox/tvbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B2B96E-F1A0-470C-B0F7-CAC5DA232397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{32B2B96E-F1A0-470C-B0F7-CAC5DA232397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE0F800-C06F-4086-BA50-52693C685B80}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2228" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="731">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -2443,6 +2443,42 @@
   </si>
   <si>
     <t>https://pastebin.com/raw/5NHaxyGR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xhww.fun/小米/DEMO.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://gh-proxy.com/https://raw.githubusercontent.com/wnddwc/daiweichun/main/waynfifdwj.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://xxxoo.shop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/wnddwc/daiweichun/main/waynfifdwj.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.gitmirror.com/guot55/YGBH/main/ygbox.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://raw.iqiq.io/Yosakoii/Yosakoii.github.io/main/2023.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://rihou.vip:88/荷城茶秀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cloud.lxweb.cn/f/LPmDFD/4k.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://api.zalman2022.repl.co/api.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2542,27 +2578,7 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="8">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -2657,9 +2673,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2697,7 +2713,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2803,7 +2819,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2945,7 +2961,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -6398,10 +6414,10 @@
   <autoFilter ref="A1:F175" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="9" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B1048576 B163:B170 B1:B161 A172:B178">
-    <cfRule type="duplicateValues" dxfId="8" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B132" r:id="rId1" display="https://raw.githubusercontent.com/ZTHA000/tvbox/main/gyckname.json" xr:uid="{D46703AA-5C92-4208-9223-CD8A5269F14F}"/>
@@ -7522,12 +7538,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B77">
-    <cfRule type="duplicateValues" dxfId="5" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B40" r:id="rId1" xr:uid="{EC1A7440-C816-4267-91DB-00B01603E505}"/>
@@ -8962,10 +8978,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541C4F4-0398-447C-A3D0-93664596F62A}">
-  <dimension ref="A1:B98"/>
+  <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD21"/>
+      <selection activeCell="A32" sqref="A32:XFD99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -8976,794 +8992,269 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>218</v>
-      </c>
-      <c r="B1" s="5" t="s">
-        <v>12</v>
+        <v>428</v>
+      </c>
+      <c r="B1" t="s">
+        <v>427</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>460</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>254</v>
       </c>
       <c r="B3" t="s">
-        <v>219</v>
+        <v>461</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>422</v>
+        <v>466</v>
       </c>
       <c r="B4" t="s">
-        <v>170</v>
+        <v>465</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>424</v>
+        <v>468</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>467</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>426</v>
+        <v>499</v>
       </c>
       <c r="B6" t="s">
-        <v>425</v>
+        <v>498</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>428</v>
+        <v>503</v>
       </c>
       <c r="B7" t="s">
-        <v>427</v>
+        <v>502</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>429</v>
+        <v>509</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>508</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>442</v>
+        <v>513</v>
       </c>
       <c r="B9" t="s">
-        <v>441</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>444</v>
+        <v>527</v>
       </c>
       <c r="B10" t="s">
-        <v>443</v>
+        <v>526</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>459</v>
+        <v>533</v>
       </c>
       <c r="B11" t="s">
-        <v>458</v>
+        <v>532</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="B12" t="s">
-        <v>130</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>254</v>
-      </c>
-      <c r="B13" t="s">
-        <v>461</v>
+        <v>545</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>722</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>466</v>
-      </c>
-      <c r="B14" t="s">
-        <v>465</v>
+        <v>602</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>723</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>468</v>
-      </c>
-      <c r="B15" t="s">
-        <v>467</v>
+        <v>606</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>724</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>469</v>
-      </c>
-      <c r="B16" t="s">
-        <v>172</v>
+        <v>618</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>473</v>
+        <v>622</v>
       </c>
       <c r="B17" t="s">
-        <v>472</v>
+        <v>623</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>481</v>
-      </c>
-      <c r="B18" t="s">
-        <v>480</v>
+        <v>628</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>726</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>485</v>
-      </c>
-      <c r="B19" t="s">
-        <v>484</v>
+        <v>631</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>487</v>
+        <v>634</v>
       </c>
       <c r="B20" t="s">
-        <v>486</v>
+        <v>633</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>132</v>
+      <c r="A21" t="s">
+        <v>654</v>
+      </c>
+      <c r="B21" t="s">
+        <v>655</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>491</v>
+      <c r="A22" t="s">
+        <v>658</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>728</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>496</v>
+      <c r="A23" t="s">
+        <v>660</v>
+      </c>
+      <c r="B23" t="s">
+        <v>659</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" s="6" t="s">
-        <v>499</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>498</v>
+      <c r="A24" t="s">
+        <v>662</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" s="6" t="s">
-        <v>501</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>500</v>
+      <c r="A25" t="s">
+        <v>668</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" s="6" t="s">
-        <v>503</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>502</v>
+      <c r="A26" t="s">
+        <v>672</v>
+      </c>
+      <c r="B26" t="s">
+        <v>671</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" s="6" t="s">
-        <v>509</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>508</v>
+      <c r="A27" t="s">
+        <v>679</v>
+      </c>
+      <c r="B27" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>510</v>
+      <c r="A28" t="s">
+        <v>698</v>
+      </c>
+      <c r="B28" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" s="6" t="s">
-        <v>512</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>2</v>
+      <c r="A29" t="s">
+        <v>700</v>
+      </c>
+      <c r="B29" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" s="6" t="s">
-        <v>513</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>20</v>
+      <c r="A30" t="s">
+        <v>706</v>
+      </c>
+      <c r="B30" t="s">
+        <v>707</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>515</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" s="6" t="s">
-        <v>516</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" s="6" t="s">
-        <v>527</v>
-      </c>
-      <c r="B33" s="5" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" s="6" t="s">
-        <v>531</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>544</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
-        <v>550</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" s="6" t="s">
-        <v>552</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" s="6" t="s">
-        <v>554</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" s="6" t="s">
-        <v>561</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" s="6" t="s">
-        <v>565</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>564</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" s="6" t="s">
-        <v>590</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" s="6" t="s">
-        <v>591</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>592</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" s="6" t="s">
-        <v>593</v>
-      </c>
-      <c r="B52" s="6" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" s="6" t="s">
-        <v>594</v>
-      </c>
-      <c r="B53" s="6" t="s">
-        <v>595</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>597</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" s="6" t="s">
-        <v>598</v>
-      </c>
-      <c r="B55" s="6" t="s">
-        <v>599</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="B56" s="6" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="B57" s="6" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" s="6" t="s">
-        <v>606</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>607</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" s="6" t="s">
-        <v>608</v>
-      </c>
-      <c r="B59" s="6" t="s">
-        <v>609</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" s="6" t="s">
-        <v>610</v>
-      </c>
-      <c r="B60" s="6" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>617</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" s="6" t="s">
-        <v>620</v>
-      </c>
-      <c r="B63" s="6" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="B64" s="6" t="s">
-        <v>623</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" s="6" t="s">
-        <v>626</v>
-      </c>
-      <c r="B65" s="6" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" s="6" t="s">
-        <v>628</v>
-      </c>
-      <c r="B66" s="6" t="s">
-        <v>629</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" s="6" t="s">
-        <v>631</v>
-      </c>
-      <c r="B67" s="6" t="s">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" s="6" t="s">
-        <v>634</v>
-      </c>
-      <c r="B68" s="6" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B69" s="6" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="B70" s="6" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B71" s="6" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B72" s="6" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="B73" s="6" t="s">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
-        <v>658</v>
-      </c>
-      <c r="B74" s="6" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A75" s="6" t="s">
-        <v>660</v>
-      </c>
-      <c r="B75" s="6" t="s">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A76" s="6" t="s">
-        <v>662</v>
-      </c>
-      <c r="B76" s="6" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A77" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="B77" s="6" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A78" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="B78" s="6" t="s">
-        <v>667</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A79" s="6" t="s">
-        <v>670</v>
-      </c>
-      <c r="B79" s="6" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A80" s="6" t="s">
-        <v>672</v>
-      </c>
-      <c r="B80" s="6" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A81" s="6" t="s">
-        <v>674</v>
-      </c>
-      <c r="B81" s="6" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A82" s="6" t="s">
-        <v>677</v>
-      </c>
-      <c r="B82" s="6" t="s">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A83" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="B83" s="6" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A84" s="6" t="s">
-        <v>682</v>
-      </c>
-      <c r="B84" s="6" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A85" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A86" s="6" t="s">
-        <v>692</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A87" s="6" t="s">
-        <v>698</v>
-      </c>
-      <c r="B87" s="6" t="s">
-        <v>699</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A88" s="6" t="s">
-        <v>700</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A89" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A90" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A91" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>707</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A92" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>709</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A93" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>711</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A94" s="6" t="s">
-        <v>712</v>
-      </c>
-      <c r="B94" s="6" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="B95" s="6" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A96" s="6" t="s">
+      <c r="A31" t="s">
         <v>716</v>
       </c>
-      <c r="B96" s="6" t="s">
+      <c r="B31" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A97" s="6" t="s">
-        <v>717</v>
-      </c>
-      <c r="B97" s="6" t="s">
-        <v>718</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A98" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="B98" s="6" t="s">
-        <v>719</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="B1:B33">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  <conditionalFormatting sqref="B1:B31">
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
   </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B13" r:id="rId1" xr:uid="{D32882A6-C77F-4A7C-9015-A622C6B49391}"/>
+    <hyperlink ref="B14" r:id="rId2" xr:uid="{3824816A-5C82-49FE-978D-8301F381C1DF}"/>
+    <hyperlink ref="B15" r:id="rId3" xr:uid="{050BC20D-02BE-4400-A344-1CB13B8897F1}"/>
+    <hyperlink ref="B16" r:id="rId4" xr:uid="{F37C82FB-68BF-48BA-9592-C12ACB2015AE}"/>
+    <hyperlink ref="B18" r:id="rId5" xr:uid="{AAC247A0-CD0D-4FC9-AEB3-1F401296607E}"/>
+    <hyperlink ref="B19" r:id="rId6" xr:uid="{D7A711C2-5DE3-4200-B1DD-44EF254126CF}"/>
+    <hyperlink ref="B22" r:id="rId7" xr:uid="{3068AA43-BDB0-42E4-880D-1D6B22679F3F}"/>
+    <hyperlink ref="B24" r:id="rId8" xr:uid="{98694CE3-CD1A-4811-AC61-6289282B1D3B}"/>
+    <hyperlink ref="B25" r:id="rId9" xr:uid="{7C3C6BEA-C53A-482F-B6C5-4823DB054174}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb9c4ddb314f6b22/Learn/pythonLearn/TvBox/tvbox/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{32B2B96E-F1A0-470C-B0F7-CAC5DA232397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1FE0F800-C06F-4086-BA50-52693C685B80}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4106A459-C30A-4334-8FAA-79F3D816CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="3" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="xl done" sheetId="3" r:id="rId3"/>
     <sheet name="dc" sheetId="4" r:id="rId4"/>
     <sheet name="610" sheetId="5" r:id="rId5"/>
+    <sheet name="1120" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'610'!#REF!</definedName>
@@ -44,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2094" uniqueCount="731">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="754">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -2480,6 +2481,75 @@
   <si>
     <t>https://api.zalman2022.repl.co/api.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://安卓哥.com</t>
+  </si>
+  <si>
+    <t>http://fongmi.top</t>
+  </si>
+  <si>
+    <t>http://接口.tvbox.中国</t>
+  </si>
+  <si>
+    <t>https://盒子迷.top/4K</t>
+  </si>
+  <si>
+    <t>https://盒子迷.top/春盈天下</t>
+  </si>
+  <si>
+    <t>https://hezi.tvboxhz.top/dxaw0</t>
+  </si>
+  <si>
+    <t>https://agit.ai/cyl58/yl/raw/branch/master/ml.json</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/room.json?ref=main</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://github.com/hd9211/Tvbox1/blob/main/cr.json</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://github.com/bizhangjie/CatVodSpider/blob/main/json/index18.json</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/bizhangjie/CatVodSpider/main/json/index18.json</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/supermeguo/BoxRes/main/Myuse/catcr.json</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/aliluya1977/TVBox/c0b8aa099c3f0847d037c169d493cc9172aea7b4/papa.json</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/wxrj/wx/raw/wx.json?ref=master</t>
+  </si>
+  <si>
+    <t>https://www.mpanso.com/小米/DEMO.json</t>
+  </si>
+  <si>
+    <t>http://饭.eu.org/tv</t>
+  </si>
+  <si>
+    <t>http://fan.xxooo.cf/tv</t>
+  </si>
+  <si>
+    <t>http://www.饭太硬.com/tv</t>
+  </si>
+  <si>
+    <t>http://fty.xxooo.cf/tv</t>
+  </si>
+  <si>
+    <t>http://fty.888484.xyz/tv</t>
+  </si>
+  <si>
+    <t>https://9280.kstore.space/wex.json</t>
+  </si>
+  <si>
+    <t>https://ghp.ci/https://raw.githubusercontent.com/supermeguo/BoxRes/main/Myuse/lemoncr.json</t>
+  </si>
+  <si>
+    <t>https://www.kdocs.cn/l/csxAeSxqNok4</t>
   </si>
 </sst>
 </file>
@@ -2673,9 +2743,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2713,7 +2783,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2819,7 +2889,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2961,7 +3031,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -8980,7 +9050,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F541C4F4-0398-447C-A3D0-93664596F62A}">
   <dimension ref="A1:B31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A32" sqref="A32:XFD99"/>
     </sheetView>
   </sheetViews>
@@ -10678,6 +10748,165 @@
     <hyperlink ref="B1" r:id="rId1" xr:uid="{96A26270-5A79-44ED-8682-5446797FC887}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD19691D-7D7A-4BC2-B10D-D928406D2490}">
+  <dimension ref="B1:B28"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="122" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>731</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>735</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>739</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="27" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="28" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>753</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4106A459-C30A-4334-8FAA-79F3D816CC15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F7F83-88F7-4AC7-A2C9-61E415E7F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2122" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="761">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -2550,6 +2550,33 @@
   </si>
   <si>
     <t>https://www.kdocs.cn/l/csxAeSxqNok4</t>
+  </si>
+  <si>
+    <t>https://盒子迷.top/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/wxrj/wx/raw/yx.txt?ref=master</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/wxrj/wx/raw/jh.txt?ref=master</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/a.txt?ref=main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/b.txt?ref=main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/c.txt?ref=main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/d.txt?ref=main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2648,7 +2675,17 @@
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -6484,10 +6521,10 @@
   <autoFilter ref="A1:F175" xr:uid="{1D13D860-527B-4A60-AB58-084CC26D4637}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="duplicateValues" dxfId="7" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B179:B1048576 B163:B170 B1:B161 A172:B178">
-    <cfRule type="duplicateValues" dxfId="6" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="2"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B132" r:id="rId1" display="https://raw.githubusercontent.com/ZTHA000/tvbox/main/gyckname.json" xr:uid="{D46703AA-5C92-4208-9223-CD8A5269F14F}"/>
@@ -7608,12 +7645,12 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="5" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="4" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B40:B77">
-    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="4"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B40" r:id="rId1" xr:uid="{EC1A7440-C816-4267-91DB-00B01603E505}"/>
@@ -9311,8 +9348,8 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="B1:B31">
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="B13" r:id="rId1" xr:uid="{D32882A6-C77F-4A7C-9015-A622C6B49391}"/>
@@ -10754,9 +10791,11 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD19691D-7D7A-4BC2-B10D-D928406D2490}">
-  <dimension ref="B1:B28"/>
+  <dimension ref="B1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
@@ -10903,10 +10942,56 @@
         <v>753</v>
       </c>
     </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="30" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B30" s="2" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B31" s="2" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="32" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B32" s="2" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" s="2" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" s="2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" s="2" t="s">
+        <v>754</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <hyperlinks>
+    <hyperlink ref="B30" r:id="rId1" xr:uid="{90A2DE4F-1EF7-4E68-83FB-7C36393E11A1}"/>
+    <hyperlink ref="B31" r:id="rId2" xr:uid="{AB421E32-57E8-45C5-B22A-723FE58882B7}"/>
+    <hyperlink ref="B32" r:id="rId3" xr:uid="{1B7F947C-F85B-49CE-B613-16CAE215D0A2}"/>
+    <hyperlink ref="B33" r:id="rId4" xr:uid="{ECDB5BEC-AF4D-46DD-A576-1B5A2D94A6FC}"/>
+    <hyperlink ref="B34" r:id="rId5" xr:uid="{5A77369A-7661-453A-AADC-A753CB9DB0DF}"/>
+    <hyperlink ref="B35" r:id="rId6" xr:uid="{165AE1E5-22F5-40AB-9A32-BD0582911289}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C5F7F83-88F7-4AC7-A2C9-61E415E7F35F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AFA415-0134-48FA-BA44-D707B6C737DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="xl done" sheetId="3" r:id="rId3"/>
     <sheet name="dc" sheetId="4" r:id="rId4"/>
     <sheet name="610" sheetId="5" r:id="rId5"/>
-    <sheet name="1120" sheetId="6" r:id="rId6"/>
+    <sheet name="1120（已梳理）" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'610'!#REF!</definedName>
@@ -10794,7 +10794,7 @@
   <dimension ref="B1:B35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0AFA415-0134-48FA-BA44-D707B6C737DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D181BC-C03D-45AE-8A54-E44CCA155E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="xl done" sheetId="3" r:id="rId3"/>
-    <sheet name="dc" sheetId="4" r:id="rId4"/>
-    <sheet name="610" sheetId="5" r:id="rId5"/>
-    <sheet name="1120（已梳理）" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="hidden" r:id="rId2"/>
+    <sheet name="xl done" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="dc" sheetId="4" state="hidden" r:id="rId4"/>
+    <sheet name="610" sheetId="5" state="hidden" r:id="rId5"/>
+    <sheet name="1120（已梳理）" sheetId="6" state="hidden" r:id="rId6"/>
+    <sheet name="0103" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'610'!#REF!</definedName>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2129" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="861">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -2510,9 +2511,6 @@
     <t>https://mirror.ghproxy.com/https://github.com/hd9211/Tvbox1/blob/main/cr.json</t>
   </si>
   <si>
-    <t>https://mirror.ghproxy.com/https://github.com/bizhangjie/CatVodSpider/blob/main/json/index18.json</t>
-  </si>
-  <si>
     <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/bizhangjie/CatVodSpider/main/json/index18.json</t>
   </si>
   <si>
@@ -2576,6 +2574,357 @@
   </si>
   <si>
     <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/d.txt?ref=main</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://tv.laohu.cool/tvbox.json</t>
+  </si>
+  <si>
+    <t>https://mpanso.me/DEMO.json</t>
+  </si>
+  <si>
+    <t>http://ok321.top/tv</t>
+  </si>
+  <si>
+    <t>http://我不是.摸鱼儿.com</t>
+  </si>
+  <si>
+    <t>http://肥猫.com/</t>
+  </si>
+  <si>
+    <t>https://bitbucket.org/xduo/cool/raw/main/room.json</t>
+  </si>
+  <si>
+    <t>http://xmbjm.fh4u.org/ck.txt</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/supermeguo/BoxRes/main/Myuse/cat.json</t>
+  </si>
+  <si>
+    <t>https://12586.kstore.space/123.json</t>
+  </si>
+  <si>
+    <t>https://cdn09022024.gitlink.org.cn/leevi0321/cool/raw/branch/main/room.json</t>
+  </si>
+  <si>
+    <t>https://raw.gitcode.com/yydg/ggdx/raw/main/Xboxb.json</t>
+  </si>
+  <si>
+    <t>http://我不是.肥猫.love:63/接口禁止贩卖</t>
+  </si>
+  <si>
+    <t>http://tv.nxog.top/api.php?mz=xb&amp;id=1&amp;b=欧歌</t>
+  </si>
+  <si>
+    <t>http://jk.itvbox.cc:66/可视TV/云星日记/仓库/api.json</t>
+  </si>
+  <si>
+    <t>http://52bsj.vip:98/wuaihouse</t>
+  </si>
+  <si>
+    <t>http://52bsj.vip:98/wuai</t>
+  </si>
+  <si>
+    <t>http://itvbox.cc/tvbox/云星日记/1.m3u8</t>
+  </si>
+  <si>
+    <t>http://miaotvs.cn/meow</t>
+  </si>
+  <si>
+    <t>🔷肥猫</t>
+  </si>
+  <si>
+    <t>🔷骚零</t>
+  </si>
+  <si>
+    <t>🔷巧记</t>
+  </si>
+  <si>
+    <t>🔷星辰</t>
+  </si>
+  <si>
+    <t>🔷多多</t>
+  </si>
+  <si>
+    <t>🔷阿里</t>
+  </si>
+  <si>
+    <t>🔷欧歌</t>
+  </si>
+  <si>
+    <t>🔷云星</t>
+  </si>
+  <si>
+    <t>🔷吾爱</t>
+  </si>
+  <si>
+    <t>🔷刘备</t>
+  </si>
+  <si>
+    <t>🔷运输</t>
+  </si>
+  <si>
+    <t>🔷蚂蚁</t>
+  </si>
+  <si>
+    <t>🔷喵影</t>
+  </si>
+  <si>
+    <t>1️⃣饭太硬</t>
+  </si>
+  <si>
+    <t>2️⃣拾光趣乐屋</t>
+  </si>
+  <si>
+    <t>3️⃣肥猫线路</t>
+  </si>
+  <si>
+    <t>http://124.71.189.194/a.json</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🧊</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">接口大全 </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="Segoe UI Emoji"/>
+        <family val="2"/>
+      </rPr>
+      <t>🧊</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://天.陌尘.ic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://肥猫.com/ </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://xmbjm.github.io/ck.json</t>
+  </si>
+  <si>
+    <t>潇洒单仓</t>
+  </si>
+  <si>
+    <t>拾光趣乐屋</t>
+  </si>
+  <si>
+    <t>https://4708.kstore.space/ck.json</t>
+  </si>
+  <si>
+    <t>奇奇单仓</t>
+  </si>
+  <si>
+    <t>http://z.qiqiv.cn/123</t>
+  </si>
+  <si>
+    <t>https://9877.kstore.space/FourDS/api.json</t>
+  </si>
+  <si>
+    <t>开心单仓</t>
+  </si>
+  <si>
+    <t>天微单仓</t>
+  </si>
+  <si>
+    <t>https://4708.kstore.space/omg/hollo.json</t>
+  </si>
+  <si>
+    <t>分享</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/maoystv/6/main/000.json</t>
+  </si>
+  <si>
+    <t>小屋</t>
+  </si>
+  <si>
+    <t>https://git.acwing.com/shhentu/lzxw/-/raw/main/Monster.json</t>
+  </si>
+  <si>
+    <t>影探</t>
+  </si>
+  <si>
+    <t>饭太硬</t>
+  </si>
+  <si>
+    <t>小米</t>
+  </si>
+  <si>
+    <t>王小二</t>
+  </si>
+  <si>
+    <t>开心</t>
+  </si>
+  <si>
+    <t>青龙</t>
+  </si>
+  <si>
+    <t>巧记</t>
+  </si>
+  <si>
+    <t>喵影视</t>
+  </si>
+  <si>
+    <t>http://meowtv.cn/tv</t>
+  </si>
+  <si>
+    <t>https://ztha.top/TVBox/thdjk.json</t>
+  </si>
+  <si>
+    <t>驸马</t>
+  </si>
+  <si>
+    <t>http://fmys.top/fmys.json</t>
+  </si>
+  <si>
+    <t>龙一</t>
+  </si>
+  <si>
+    <t>https://ghp.ci/raw.githubusercontent.com/guot55/YGBH/main/vip2.json</t>
+  </si>
+  <si>
+    <t>西夏</t>
+  </si>
+  <si>
+    <t>https://2912.kstore.space/0506.json</t>
+  </si>
+  <si>
+    <t>蓝天</t>
+  </si>
+  <si>
+    <t>非凡</t>
+  </si>
+  <si>
+    <t>https://g.3344550.xyz/https://raw.githubusercontent.com/jigedos/1024/master/jsm.json</t>
+  </si>
+  <si>
+    <t>海冰</t>
+  </si>
+  <si>
+    <t>花生</t>
+  </si>
+  <si>
+    <t>https://git.acwing.com/abai/tv/-/raw/main/huas.json</t>
+  </si>
+  <si>
+    <t>刘伟</t>
+  </si>
+  <si>
+    <t>https://git.acwing.com/lw0704/66/-/raw/master/jjzx.json</t>
+  </si>
+  <si>
+    <t>超级</t>
+  </si>
+  <si>
+    <t>https://git.acwing.com/203BDXC/tvboxt/-/raw/main/CJ.json</t>
+  </si>
+  <si>
+    <t>剪影</t>
+  </si>
+  <si>
+    <t>https://git.acwing.com/lkq0379/zjys/-/raw/main/zjys.json</t>
+  </si>
+  <si>
+    <t>金鹰</t>
+  </si>
+  <si>
+    <t>短剧</t>
+  </si>
+  <si>
+    <t>http://74.120.175.78/JK/XYQTVBox/dj.json</t>
+  </si>
+  <si>
+    <t>白龙</t>
+  </si>
+  <si>
+    <t>https://fmbox.cc/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">星辰 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.xn--sss604efuw.com/tv</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.mpanso.com/小米/DEMO.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://550.3vcn.work/wdjyys.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.githubraw.com/xuexuguang/tvbox_spider/main/tv/kk/heroaku_dtes.json</t>
+  </si>
+  <si>
+    <t>http://kxrj.site:55</t>
+  </si>
+  <si>
+    <t>https://ghp.ci/https://raw.githubusercontent.com/vbskycn/tvbox/a244f6f5c08565a9a0e319d6a3cc2e919d05d893/MY探探.txt</t>
+  </si>
+  <si>
+    <t>http://mzjk.top/禁止贩卖</t>
+  </si>
+  <si>
+    <t>http://肥猫.com</t>
+  </si>
+  <si>
+    <t>http://tvbox.王二小放牛娃.top</t>
+  </si>
+  <si>
+    <t>http://kxrj.site:55/天天开心</t>
+  </si>
+  <si>
+    <t>https://gitee.com/yiwu369/6758/raw/master/青龙/1.json</t>
+  </si>
+  <si>
+    <t>https://龙伊.top/</t>
+  </si>
+  <si>
+    <t>https://gitee.com/lukei7/lib/raw/Luck/自建.json</t>
+  </si>
+  <si>
+    <t>https://git.acwing.com/cisenyuan/kdsb/-/raw/main/海兵影视.json</t>
+  </si>
+  <si>
+    <t>https://mirror.ghproxy.com/https://github.com/bizhangjie/CatVodSpider/blob/main/json/index18.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2583,7 +2932,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2623,6 +2972,13 @@
       <name val="微软雅黑"/>
       <family val="3"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Segoe UI Emoji"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3079,7 +3435,7 @@
   <dimension ref="A1:F175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -6554,7 +6910,7 @@
   <dimension ref="A1:D77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -7668,7 +8024,7 @@
   <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="A133" sqref="A1:XFD1048576"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -9088,7 +9444,7 @@
   <dimension ref="A1:B31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A32" sqref="A32:XFD99"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -9371,7 +9727,7 @@
   <dimension ref="A1:B175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B20"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -10793,7 +11149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD19691D-7D7A-4BC2-B10D-D928406D2490}">
   <dimension ref="B1:B35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
@@ -10873,108 +11229,108 @@
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
-      <c r="B15" t="s">
-        <v>740</v>
+      <c r="B15" s="2" t="s">
+        <v>860</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B16" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B17" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B18" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B19" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B20" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B21" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B22" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B23" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B24" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B25" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B26" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="27" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B27" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="28" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B28" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="29" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B29" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="30" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B30" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="31" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B31" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="32" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B32" s="2" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B33" s="2" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B34" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B35" s="2" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
   </sheetData>
@@ -10989,9 +11345,605 @@
     <hyperlink ref="B33" r:id="rId4" xr:uid="{ECDB5BEC-AF4D-46DD-A576-1B5A2D94A6FC}"/>
     <hyperlink ref="B34" r:id="rId5" xr:uid="{5A77369A-7661-453A-AADC-A753CB9DB0DF}"/>
     <hyperlink ref="B35" r:id="rId6" xr:uid="{165AE1E5-22F5-40AB-9A32-BD0582911289}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{0480CC39-D60D-4BD5-B37B-0C270E0BCFB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2557BB1B-C914-4009-BE65-A9E8A3C8DC52}">
+  <dimension ref="A1:B74"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="2" max="2" width="107.453125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>849</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>769</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>778</v>
+      </c>
+      <c r="B15" t="s">
+        <v>771</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>779</v>
+      </c>
+      <c r="B16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>780</v>
+      </c>
+      <c r="B17" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>781</v>
+      </c>
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>782</v>
+      </c>
+      <c r="B19" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>783</v>
+      </c>
+      <c r="B20" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>782</v>
+      </c>
+      <c r="B21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>784</v>
+      </c>
+      <c r="B22" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>785</v>
+      </c>
+      <c r="B23" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>786</v>
+      </c>
+      <c r="B24" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>782</v>
+      </c>
+      <c r="B25" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>787</v>
+      </c>
+      <c r="B26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>788</v>
+      </c>
+      <c r="B27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>789</v>
+      </c>
+      <c r="B28" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>786</v>
+      </c>
+      <c r="B29" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>785</v>
+      </c>
+      <c r="B30" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>790</v>
+      </c>
+      <c r="B31" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>795</v>
+      </c>
+      <c r="B32" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>791</v>
+      </c>
+      <c r="B33" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>792</v>
+      </c>
+      <c r="B34" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>793</v>
+      </c>
+      <c r="B35" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>800</v>
+      </c>
+      <c r="B36" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>800</v>
+      </c>
+      <c r="B37" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>800</v>
+      </c>
+      <c r="B38" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>802</v>
+      </c>
+      <c r="B39" t="s">
+        <v>803</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>799</v>
+      </c>
+      <c r="B40" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>805</v>
+      </c>
+      <c r="B41" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>806</v>
+      </c>
+      <c r="B42" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B43" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>845</v>
+      </c>
+      <c r="B44" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>808</v>
+      </c>
+      <c r="B45" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>810</v>
+      </c>
+      <c r="B46" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>812</v>
+      </c>
+      <c r="B47" t="s">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>313</v>
+      </c>
+      <c r="B48" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>37</v>
+      </c>
+      <c r="B49" t="s">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>813</v>
+      </c>
+      <c r="B50" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>814</v>
+      </c>
+      <c r="B51" t="s">
+        <v>847</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>634</v>
+      </c>
+      <c r="B52" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>815</v>
+      </c>
+      <c r="B53" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>98</v>
+      </c>
+      <c r="B54" t="s">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>816</v>
+      </c>
+      <c r="B55" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>817</v>
+      </c>
+      <c r="B56" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>818</v>
+      </c>
+      <c r="B57" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>819</v>
+      </c>
+      <c r="B58" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>56</v>
+      </c>
+      <c r="B59" t="s">
+        <v>821</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>822</v>
+      </c>
+      <c r="B60" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>824</v>
+      </c>
+      <c r="B61" t="s">
+        <v>857</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>431</v>
+      </c>
+      <c r="B62" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>313</v>
+      </c>
+      <c r="B63" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>826</v>
+      </c>
+      <c r="B64" t="s">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>828</v>
+      </c>
+      <c r="B65" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>829</v>
+      </c>
+      <c r="B66" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>831</v>
+      </c>
+      <c r="B67" t="s">
+        <v>859</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>832</v>
+      </c>
+      <c r="B68" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>834</v>
+      </c>
+      <c r="B69" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>836</v>
+      </c>
+      <c r="B70" t="s">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>838</v>
+      </c>
+      <c r="B71" t="s">
+        <v>839</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>840</v>
+      </c>
+      <c r="B72" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>841</v>
+      </c>
+      <c r="B73" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>843</v>
+      </c>
+      <c r="B74" t="s">
+        <v>794</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B72" r:id="rId1" xr:uid="{A84503A7-A22C-4BC5-A1B2-F0944CF859F9}"/>
+    <hyperlink ref="B51" r:id="rId2" xr:uid="{243EAC9C-8270-46B0-AC66-0D7D8091DEAA}"/>
+    <hyperlink ref="B50" r:id="rId3" xr:uid="{3B0E51BA-8447-42BA-84A2-B0A9EA1C6E8D}"/>
+    <hyperlink ref="B35" r:id="rId4" xr:uid="{8E0C8BEA-0795-4EBA-B35F-FF9BB8C70CFD}"/>
+    <hyperlink ref="A34" r:id="rId5" display="http://xmbjm.fh4u.org/ck.txt" xr:uid="{EE2A037D-77F3-4530-BE30-174D0750578A}"/>
+    <hyperlink ref="A33" r:id="rId6" display="http://fty.xxooo.cf/tv" xr:uid="{9FDCF724-29A6-4367-BD94-BEC33D2DB107}"/>
+    <hyperlink ref="A32" r:id="rId7" display="http://天.陌尘.ic/" xr:uid="{7DDFE0C7-86FF-4410-8798-099740941846}"/>
+    <hyperlink ref="A31" r:id="rId8" display="http://miaotvs.cn/meow" xr:uid="{EF0118FD-7ECC-4BF2-9554-2D6F1A31FF25}"/>
+    <hyperlink ref="A30" r:id="rId9" display="http://itvbox.cc/tvbox/%E4%BA%91%E6%98%9F%E6%97%A5%E8%AE%B0/1.m3u8" xr:uid="{6CE7E09F-5DAB-470A-B86B-7BFBC0C844C1}"/>
+    <hyperlink ref="A29" r:id="rId10" display="http://52bsj.vip:98/wuai" xr:uid="{78716B3B-6D1D-432E-8BB6-FC3A9D5682C1}"/>
+    <hyperlink ref="A28" r:id="rId11" display="https://la.kstore.space/download/2883/0110.txt" xr:uid="{C9510A82-87CD-4237-8E14-8CBAEF08BAED}"/>
+    <hyperlink ref="A27" r:id="rId12" display="https://weixine.net/ysc.json" xr:uid="{4DD9ED33-89AF-4542-9411-636A2AC72AB5}"/>
+    <hyperlink ref="A26" r:id="rId13" display="https://raw.liucn.cc/box/m.json" xr:uid="{C7DC7F58-3FDB-40E4-8709-54E429C4B0FC}"/>
+    <hyperlink ref="A25" r:id="rId14" display="http://yydsys.top/duo" xr:uid="{FF312585-41D4-41D8-8824-B53C78177929}"/>
+    <hyperlink ref="A24" r:id="rId15" display="http://52bsj.vip:98/wuaihouse" xr:uid="{191D98F3-5A03-43A3-9D9D-C5A19EA19D1E}"/>
+    <hyperlink ref="A23" r:id="rId16" display="http://jk.itvbox.cc:66/%E5%8F%AF%E8%A7%86TV/%E4%BA%91%E6%98%9F%E6%97%A5%E8%AE%B0/%E4%BB%93%E5%BA%93/api.json" xr:uid="{BD6F44A8-8351-4370-8DE2-9538D911C918}"/>
+    <hyperlink ref="A22" r:id="rId17" display="http://tv.nxog.top/api.php?mz=xb&amp;id=1&amp;b=%E6%AC%A7%E6%AD%8C" xr:uid="{81A6FF75-82D1-4E46-B656-692E53AF12CC}"/>
+    <hyperlink ref="A21" r:id="rId18" display="https://jihulab.com/duomv/apps/-/raw/main/fast.json" xr:uid="{FD18A290-250F-4872-A743-11C5CADF5C92}"/>
+    <hyperlink ref="A20" r:id="rId19" display="http://yydsys.top/duo/ali" xr:uid="{468E743C-94F4-4ED4-95B8-7A0385249AC9}"/>
+    <hyperlink ref="A19" r:id="rId20" display="http://yydsys.top/duo" xr:uid="{1CA8713D-C48E-4710-9166-0830A8A0077A}"/>
+    <hyperlink ref="A18" r:id="rId21" display="http://8.210.232.168/xc.json" xr:uid="{7D8551EF-22D7-4E03-A7B3-7301B42992C2}"/>
+    <hyperlink ref="A17" r:id="rId22" display="http://pandown.pro/tvbox/tvbox.json" xr:uid="{6F485B92-BFC9-4762-BD08-1B5607E04650}"/>
+    <hyperlink ref="A16" r:id="rId23" display="https://xhdwc.tk/0" xr:uid="{A82C528B-9355-439D-8A6D-814929D8BDA9}"/>
+    <hyperlink ref="A15" r:id="rId24" display="http://我不是.肥猫.love:63/%E6%8E%A5%E5%8F%A3%E7%A6%81%E6%AD%A2%E8%B4%A9%E5%8D%96" xr:uid="{46A7D6EA-A019-4FA1-942F-961FC7F1EF1D}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0D181BC-C03D-45AE-8A54-E44CCA155E46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BADAF3-05C8-4714-9FA7-217447778FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="610" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="1120（已梳理）" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="0103" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'610'!#REF!</definedName>
@@ -46,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2263" uniqueCount="861">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="772">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -2577,362 +2578,50 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>http://tv.laohu.cool/tvbox.json</t>
-  </si>
-  <si>
-    <t>https://mpanso.me/DEMO.json</t>
-  </si>
-  <si>
-    <t>http://ok321.top/tv</t>
-  </si>
-  <si>
-    <t>http://我不是.摸鱼儿.com</t>
-  </si>
-  <si>
-    <t>http://肥猫.com/</t>
-  </si>
-  <si>
-    <t>https://bitbucket.org/xduo/cool/raw/main/room.json</t>
-  </si>
-  <si>
-    <t>http://xmbjm.fh4u.org/ck.txt</t>
-  </si>
-  <si>
-    <t>https://mirror.ghproxy.com/https://raw.githubusercontent.com/supermeguo/BoxRes/main/Myuse/cat.json</t>
-  </si>
-  <si>
-    <t>https://12586.kstore.space/123.json</t>
-  </si>
-  <si>
-    <t>https://cdn09022024.gitlink.org.cn/leevi0321/cool/raw/branch/main/room.json</t>
-  </si>
-  <si>
-    <t>https://raw.gitcode.com/yydg/ggdx/raw/main/Xboxb.json</t>
-  </si>
-  <si>
-    <t>http://我不是.肥猫.love:63/接口禁止贩卖</t>
-  </si>
-  <si>
-    <t>http://tv.nxog.top/api.php?mz=xb&amp;id=1&amp;b=欧歌</t>
-  </si>
-  <si>
-    <t>http://jk.itvbox.cc:66/可视TV/云星日记/仓库/api.json</t>
-  </si>
-  <si>
-    <t>http://52bsj.vip:98/wuaihouse</t>
-  </si>
-  <si>
-    <t>http://52bsj.vip:98/wuai</t>
-  </si>
-  <si>
-    <t>http://itvbox.cc/tvbox/云星日记/1.m3u8</t>
-  </si>
-  <si>
-    <t>http://miaotvs.cn/meow</t>
-  </si>
-  <si>
-    <t>🔷肥猫</t>
-  </si>
-  <si>
-    <t>🔷骚零</t>
-  </si>
-  <si>
-    <t>🔷巧记</t>
-  </si>
-  <si>
-    <t>🔷星辰</t>
-  </si>
-  <si>
-    <t>🔷多多</t>
-  </si>
-  <si>
-    <t>🔷阿里</t>
-  </si>
-  <si>
-    <t>🔷欧歌</t>
-  </si>
-  <si>
-    <t>🔷云星</t>
-  </si>
-  <si>
-    <t>🔷吾爱</t>
-  </si>
-  <si>
-    <t>🔷刘备</t>
-  </si>
-  <si>
-    <t>🔷运输</t>
-  </si>
-  <si>
-    <t>🔷蚂蚁</t>
-  </si>
-  <si>
-    <t>🔷喵影</t>
-  </si>
-  <si>
-    <t>1️⃣饭太硬</t>
-  </si>
-  <si>
-    <t>2️⃣拾光趣乐屋</t>
-  </si>
-  <si>
-    <t>3️⃣肥猫线路</t>
-  </si>
-  <si>
-    <t>http://124.71.189.194/a.json</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🧊</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve">接口大全 </t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="Segoe UI Emoji"/>
-        <family val="2"/>
-      </rPr>
-      <t>🧊</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="微软雅黑"/>
-        <family val="2"/>
-        <charset val="134"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://天.陌尘.ic</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://肥猫.com/ </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://xmbjm.github.io/ck.json</t>
-  </si>
-  <si>
-    <t>潇洒单仓</t>
-  </si>
-  <si>
-    <t>拾光趣乐屋</t>
-  </si>
-  <si>
-    <t>https://4708.kstore.space/ck.json</t>
-  </si>
-  <si>
-    <t>奇奇单仓</t>
-  </si>
-  <si>
-    <t>http://z.qiqiv.cn/123</t>
-  </si>
-  <si>
-    <t>https://9877.kstore.space/FourDS/api.json</t>
-  </si>
-  <si>
-    <t>开心单仓</t>
-  </si>
-  <si>
-    <t>天微单仓</t>
-  </si>
-  <si>
-    <t>https://4708.kstore.space/omg/hollo.json</t>
-  </si>
-  <si>
-    <t>分享</t>
-  </si>
-  <si>
-    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/maoystv/6/main/000.json</t>
-  </si>
-  <si>
-    <t>小屋</t>
-  </si>
-  <si>
-    <t>https://git.acwing.com/shhentu/lzxw/-/raw/main/Monster.json</t>
-  </si>
-  <si>
-    <t>影探</t>
-  </si>
-  <si>
-    <t>饭太硬</t>
-  </si>
-  <si>
-    <t>小米</t>
-  </si>
-  <si>
-    <t>王小二</t>
-  </si>
-  <si>
-    <t>开心</t>
-  </si>
-  <si>
-    <t>青龙</t>
-  </si>
-  <si>
-    <t>巧记</t>
-  </si>
-  <si>
-    <t>喵影视</t>
-  </si>
-  <si>
-    <t>http://meowtv.cn/tv</t>
-  </si>
-  <si>
-    <t>https://ztha.top/TVBox/thdjk.json</t>
-  </si>
-  <si>
-    <t>驸马</t>
-  </si>
-  <si>
-    <t>http://fmys.top/fmys.json</t>
-  </si>
-  <si>
-    <t>龙一</t>
-  </si>
-  <si>
-    <t>https://ghp.ci/raw.githubusercontent.com/guot55/YGBH/main/vip2.json</t>
-  </si>
-  <si>
-    <t>西夏</t>
-  </si>
-  <si>
-    <t>https://2912.kstore.space/0506.json</t>
-  </si>
-  <si>
-    <t>蓝天</t>
-  </si>
-  <si>
-    <t>非凡</t>
-  </si>
-  <si>
-    <t>https://g.3344550.xyz/https://raw.githubusercontent.com/jigedos/1024/master/jsm.json</t>
-  </si>
-  <si>
-    <t>海冰</t>
-  </si>
-  <si>
-    <t>花生</t>
-  </si>
-  <si>
-    <t>https://git.acwing.com/abai/tv/-/raw/main/huas.json</t>
-  </si>
-  <si>
-    <t>刘伟</t>
-  </si>
-  <si>
-    <t>https://git.acwing.com/lw0704/66/-/raw/master/jjzx.json</t>
-  </si>
-  <si>
-    <t>超级</t>
-  </si>
-  <si>
-    <t>https://git.acwing.com/203BDXC/tvboxt/-/raw/main/CJ.json</t>
-  </si>
-  <si>
-    <t>剪影</t>
-  </si>
-  <si>
-    <t>https://git.acwing.com/lkq0379/zjys/-/raw/main/zjys.json</t>
-  </si>
-  <si>
-    <t>金鹰</t>
-  </si>
-  <si>
-    <t>短剧</t>
-  </si>
-  <si>
-    <t>http://74.120.175.78/JK/XYQTVBox/dj.json</t>
-  </si>
-  <si>
-    <t>白龙</t>
-  </si>
-  <si>
-    <t>https://fmbox.cc/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">星辰 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://www.xn--sss604efuw.com/tv</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.mpanso.com/小米/DEMO.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>http://550.3vcn.work/wdjyys.json</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.githubraw.com/xuexuguang/tvbox_spider/main/tv/kk/heroaku_dtes.json</t>
-  </si>
-  <si>
-    <t>http://kxrj.site:55</t>
-  </si>
-  <si>
-    <t>https://ghp.ci/https://raw.githubusercontent.com/vbskycn/tvbox/a244f6f5c08565a9a0e319d6a3cc2e919d05d893/MY探探.txt</t>
-  </si>
-  <si>
-    <t>http://mzjk.top/禁止贩卖</t>
-  </si>
-  <si>
-    <t>http://肥猫.com</t>
-  </si>
-  <si>
-    <t>http://tvbox.王二小放牛娃.top</t>
-  </si>
-  <si>
-    <t>http://kxrj.site:55/天天开心</t>
-  </si>
-  <si>
-    <t>https://gitee.com/yiwu369/6758/raw/master/青龙/1.json</t>
-  </si>
-  <si>
-    <t>https://龙伊.top/</t>
-  </si>
-  <si>
-    <t>https://gitee.com/lukei7/lib/raw/Luck/自建.json</t>
-  </si>
-  <si>
-    <t>https://git.acwing.com/cisenyuan/kdsb/-/raw/main/海兵影视.json</t>
-  </si>
-  <si>
     <t>https://mirror.ghproxy.com/https://github.com/bizhangjie/CatVodSpider/blob/main/json/index18.json</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/PizazzGY/TVBox_warehouse/main/warehouse.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/a.txt?ref=main</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/b.txt?ref=main</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/c.txt?ref=main</t>
+  </si>
+  <si>
+    <t>https://www.gitlink.org.cn/api/leevi0321/apps/raw/ck/d.txt?ref=main</t>
+  </si>
+  <si>
+    <t>多线路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>♦🟥|PG仓</t>
+  </si>
+  <si>
+    <t>💚多多优选仓🍭软件接口🍭</t>
+  </si>
+  <si>
+    <t>💛多多公众仓🍭完全免费🍭</t>
+  </si>
+  <si>
+    <t>❤️多多聚合仓🍭严禁贩卖🍭</t>
+  </si>
+  <si>
+    <t>💜多多预备仓🍭不做韭菜🍭</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2974,11 +2663,17 @@
       <charset val="134"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Segoe UI Emoji"/>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="7"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
       <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -3006,7 +2701,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3026,6 +2721,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -11230,7 +10934,7 @@
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.35">
       <c r="B15" s="2" t="s">
-        <v>860</v>
+        <v>760</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.35">
@@ -11354,10 +11058,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2557BB1B-C914-4009-BE65-A9E8A3C8DC52}">
-  <dimension ref="A1:B74"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -11366,584 +11070,277 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B1" t="s">
-        <v>849</v>
+      <c r="A1" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B2" t="s">
-        <v>760</v>
+      <c r="A2" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B3" t="s">
-        <v>761</v>
+      <c r="A3" s="9" t="s">
+        <v>766</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B4" t="s">
-        <v>750</v>
+      <c r="A4" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>400</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B5" t="s">
+      <c r="A5" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A6" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A10" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A11" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A12" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A13" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A14" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A15" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A16" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A18" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A19" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A20" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A21" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A23" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A24" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A25" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A26" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A27" s="7" t="s">
+        <v>768</v>
+      </c>
+      <c r="B27" s="7" t="s">
         <v>762</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B6" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A28" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B28" s="7" t="s">
         <v>763</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B7" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A29" s="7" t="s">
+        <v>770</v>
+      </c>
+      <c r="B29" s="7" t="s">
         <v>764</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B8" t="s">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A30" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B30" s="7" t="s">
         <v>765</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B9" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B10" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B11" t="s">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B12" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B13" t="s">
-        <v>770</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="B14" t="s">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>778</v>
-      </c>
-      <c r="B15" t="s">
-        <v>771</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>779</v>
-      </c>
-      <c r="B16" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>780</v>
-      </c>
-      <c r="B17" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>781</v>
-      </c>
-      <c r="B18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>782</v>
-      </c>
-      <c r="B19" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>783</v>
-      </c>
-      <c r="B20" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>782</v>
-      </c>
-      <c r="B21" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>784</v>
-      </c>
-      <c r="B22" t="s">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>785</v>
-      </c>
-      <c r="B23" t="s">
-        <v>773</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A24" t="s">
-        <v>786</v>
-      </c>
-      <c r="B24" t="s">
-        <v>774</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A25" t="s">
-        <v>782</v>
-      </c>
-      <c r="B25" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A26" t="s">
-        <v>787</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A27" t="s">
-        <v>788</v>
-      </c>
-      <c r="B27" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A28" t="s">
-        <v>789</v>
-      </c>
-      <c r="B28" t="s">
-        <v>648</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A29" t="s">
-        <v>786</v>
-      </c>
-      <c r="B29" t="s">
-        <v>775</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A30" t="s">
-        <v>785</v>
-      </c>
-      <c r="B30" t="s">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A31" t="s">
-        <v>790</v>
-      </c>
-      <c r="B31" t="s">
-        <v>777</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A32" t="s">
-        <v>795</v>
-      </c>
-      <c r="B32" t="s">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A33" t="s">
-        <v>791</v>
-      </c>
-      <c r="B33" t="s">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A34" t="s">
-        <v>792</v>
-      </c>
-      <c r="B34" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A35" t="s">
-        <v>793</v>
-      </c>
-      <c r="B35" t="s">
-        <v>797</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A36" t="s">
-        <v>800</v>
-      </c>
-      <c r="B36" t="s">
-        <v>766</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A37" t="s">
-        <v>800</v>
-      </c>
-      <c r="B37" t="s">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A38" t="s">
-        <v>800</v>
-      </c>
-      <c r="B38" t="s">
-        <v>801</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A39" t="s">
-        <v>802</v>
-      </c>
-      <c r="B39" t="s">
-        <v>803</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A40" t="s">
-        <v>799</v>
-      </c>
-      <c r="B40" t="s">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A41" t="s">
-        <v>805</v>
-      </c>
-      <c r="B41" t="s">
-        <v>850</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A42" t="s">
-        <v>806</v>
-      </c>
-      <c r="B42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A43" t="s">
-        <v>226</v>
-      </c>
-      <c r="B43" t="s">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A44" t="s">
-        <v>845</v>
-      </c>
-      <c r="B44" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A45" t="s">
-        <v>808</v>
-      </c>
-      <c r="B45" t="s">
-        <v>809</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A46" t="s">
-        <v>810</v>
-      </c>
-      <c r="B46" t="s">
-        <v>811</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A47" t="s">
-        <v>812</v>
-      </c>
-      <c r="B47" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A48" t="s">
-        <v>313</v>
-      </c>
-      <c r="B48" t="s">
-        <v>852</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A49" t="s">
-        <v>37</v>
-      </c>
-      <c r="B49" t="s">
-        <v>853</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A50" t="s">
-        <v>813</v>
-      </c>
-      <c r="B50" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A51" t="s">
-        <v>814</v>
-      </c>
-      <c r="B51" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A52" t="s">
-        <v>634</v>
-      </c>
-      <c r="B52" t="s">
-        <v>633</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A53" t="s">
-        <v>815</v>
-      </c>
-      <c r="B53" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A54" t="s">
-        <v>98</v>
-      </c>
-      <c r="B54" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A55" t="s">
-        <v>816</v>
-      </c>
-      <c r="B55" t="s">
-        <v>855</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A56" t="s">
-        <v>817</v>
-      </c>
-      <c r="B56" t="s">
-        <v>856</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A57" t="s">
-        <v>818</v>
-      </c>
-      <c r="B57" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A58" t="s">
-        <v>819</v>
-      </c>
-      <c r="B58" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
-        <v>56</v>
-      </c>
-      <c r="B59" t="s">
-        <v>821</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A60" t="s">
-        <v>822</v>
-      </c>
-      <c r="B60" t="s">
-        <v>823</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A61" t="s">
-        <v>824</v>
-      </c>
-      <c r="B61" t="s">
-        <v>857</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A62" t="s">
-        <v>431</v>
-      </c>
-      <c r="B62" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A63" t="s">
-        <v>313</v>
-      </c>
-      <c r="B63" t="s">
-        <v>825</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A64" t="s">
-        <v>826</v>
-      </c>
-      <c r="B64" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A65" t="s">
-        <v>828</v>
-      </c>
-      <c r="B65" t="s">
-        <v>858</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
-        <v>829</v>
-      </c>
-      <c r="B66" t="s">
-        <v>830</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
-        <v>831</v>
-      </c>
-      <c r="B67" t="s">
-        <v>859</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A68" t="s">
-        <v>832</v>
-      </c>
-      <c r="B68" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A69" t="s">
-        <v>834</v>
-      </c>
-      <c r="B69" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A70" t="s">
-        <v>836</v>
-      </c>
-      <c r="B70" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A71" t="s">
-        <v>838</v>
-      </c>
-      <c r="B71" t="s">
-        <v>839</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A72" t="s">
-        <v>840</v>
-      </c>
-      <c r="B72" t="s">
-        <v>848</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
-        <v>841</v>
-      </c>
-      <c r="B73" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
-        <v>843</v>
-      </c>
-      <c r="B74" t="s">
-        <v>794</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B72" r:id="rId1" xr:uid="{A84503A7-A22C-4BC5-A1B2-F0944CF859F9}"/>
-    <hyperlink ref="B51" r:id="rId2" xr:uid="{243EAC9C-8270-46B0-AC66-0D7D8091DEAA}"/>
-    <hyperlink ref="B50" r:id="rId3" xr:uid="{3B0E51BA-8447-42BA-84A2-B0A9EA1C6E8D}"/>
-    <hyperlink ref="B35" r:id="rId4" xr:uid="{8E0C8BEA-0795-4EBA-B35F-FF9BB8C70CFD}"/>
-    <hyperlink ref="A34" r:id="rId5" display="http://xmbjm.fh4u.org/ck.txt" xr:uid="{EE2A037D-77F3-4530-BE30-174D0750578A}"/>
-    <hyperlink ref="A33" r:id="rId6" display="http://fty.xxooo.cf/tv" xr:uid="{9FDCF724-29A6-4367-BD94-BEC33D2DB107}"/>
-    <hyperlink ref="A32" r:id="rId7" display="http://天.陌尘.ic/" xr:uid="{7DDFE0C7-86FF-4410-8798-099740941846}"/>
-    <hyperlink ref="A31" r:id="rId8" display="http://miaotvs.cn/meow" xr:uid="{EF0118FD-7ECC-4BF2-9554-2D6F1A31FF25}"/>
-    <hyperlink ref="A30" r:id="rId9" display="http://itvbox.cc/tvbox/%E4%BA%91%E6%98%9F%E6%97%A5%E8%AE%B0/1.m3u8" xr:uid="{6CE7E09F-5DAB-470A-B86B-7BFBC0C844C1}"/>
-    <hyperlink ref="A29" r:id="rId10" display="http://52bsj.vip:98/wuai" xr:uid="{78716B3B-6D1D-432E-8BB6-FC3A9D5682C1}"/>
-    <hyperlink ref="A28" r:id="rId11" display="https://la.kstore.space/download/2883/0110.txt" xr:uid="{C9510A82-87CD-4237-8E14-8CBAEF08BAED}"/>
-    <hyperlink ref="A27" r:id="rId12" display="https://weixine.net/ysc.json" xr:uid="{4DD9ED33-89AF-4542-9411-636A2AC72AB5}"/>
-    <hyperlink ref="A26" r:id="rId13" display="https://raw.liucn.cc/box/m.json" xr:uid="{C7DC7F58-3FDB-40E4-8709-54E429C4B0FC}"/>
-    <hyperlink ref="A25" r:id="rId14" display="http://yydsys.top/duo" xr:uid="{FF312585-41D4-41D8-8824-B53C78177929}"/>
-    <hyperlink ref="A24" r:id="rId15" display="http://52bsj.vip:98/wuaihouse" xr:uid="{191D98F3-5A03-43A3-9D9D-C5A19EA19D1E}"/>
-    <hyperlink ref="A23" r:id="rId16" display="http://jk.itvbox.cc:66/%E5%8F%AF%E8%A7%86TV/%E4%BA%91%E6%98%9F%E6%97%A5%E8%AE%B0/%E4%BB%93%E5%BA%93/api.json" xr:uid="{BD6F44A8-8351-4370-8DE2-9538D911C918}"/>
-    <hyperlink ref="A22" r:id="rId17" display="http://tv.nxog.top/api.php?mz=xb&amp;id=1&amp;b=%E6%AC%A7%E6%AD%8C" xr:uid="{81A6FF75-82D1-4E46-B656-692E53AF12CC}"/>
-    <hyperlink ref="A21" r:id="rId18" display="https://jihulab.com/duomv/apps/-/raw/main/fast.json" xr:uid="{FD18A290-250F-4872-A743-11C5CADF5C92}"/>
-    <hyperlink ref="A20" r:id="rId19" display="http://yydsys.top/duo/ali" xr:uid="{468E743C-94F4-4ED4-95B8-7A0385249AC9}"/>
-    <hyperlink ref="A19" r:id="rId20" display="http://yydsys.top/duo" xr:uid="{1CA8713D-C48E-4710-9166-0830A8A0077A}"/>
-    <hyperlink ref="A18" r:id="rId21" display="http://8.210.232.168/xc.json" xr:uid="{7D8551EF-22D7-4E03-A7B3-7301B42992C2}"/>
-    <hyperlink ref="A17" r:id="rId22" display="http://pandown.pro/tvbox/tvbox.json" xr:uid="{6F485B92-BFC9-4762-BD08-1B5607E04650}"/>
-    <hyperlink ref="A16" r:id="rId23" display="https://xhdwc.tk/0" xr:uid="{A82C528B-9355-439D-8A6D-814929D8BDA9}"/>
-    <hyperlink ref="A15" r:id="rId24" display="http://我不是.肥猫.love:63/%E6%8E%A5%E5%8F%A3%E7%A6%81%E6%AD%A2%E8%B4%A9%E5%8D%96" xr:uid="{46A7D6EA-A019-4FA1-942F-961FC7F1EF1D}"/>
+    <hyperlink ref="B1" r:id="rId1" xr:uid="{7251A851-ABBA-4006-A17D-961BD6F4B512}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B089023-D8C8-422E-84A2-28EA668552F7}">
+  <dimension ref="D31:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:D30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="4" max="4" width="89" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D31" s="7"/>
+    </row>
+    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="D32" s="7"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/excel_xianlu.xlsx
+++ b/excel_xianlu.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\lxd\learn\py\tvbox\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fb9c4ddb314f6b22/Learn/pythonLearn/TvBox/tvbox/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80BADAF3-05C8-4714-9FA7-217447778FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="6_{064C4937-FBDB-48C3-ABBC-8F116BD5428F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{07501DB3-DDE0-4ECE-B2A1-77659A3623C2}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="6" activeTab="6" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" firstSheet="6" activeTab="6" xr2:uid="{16F776E6-F36B-4EC7-9D1B-BB80EFCB2915}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="hidden" r:id="rId1"/>
@@ -20,7 +20,7 @@
     <sheet name="610" sheetId="5" state="hidden" r:id="rId5"/>
     <sheet name="1120（已梳理）" sheetId="6" state="hidden" r:id="rId6"/>
     <sheet name="0103" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet3" sheetId="8" r:id="rId8"/>
+    <sheet name="0213" sheetId="8" r:id="rId8"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'610'!#REF!</definedName>
@@ -47,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="772">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2225" uniqueCount="802">
   <si>
     <t>🔘肥猫</t>
   </si>
@@ -2615,6 +2615,98 @@
   </si>
   <si>
     <t>💜多多预备仓🍭不做韭菜🍭</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gaotianliuyun/gao/master/js.json</t>
+  </si>
+  <si>
+    <t>http://47.96.82.41:5188/</t>
+  </si>
+  <si>
+    <t>http://47.96.82.41:10/</t>
+  </si>
+  <si>
+    <t>https://dxawi.github.io/0/0.json</t>
+  </si>
+  <si>
+    <t>https://ghproxy.net/https://raw.githubusercontent.com/xiaolinshao/linshao/main/1.json</t>
+  </si>
+  <si>
+    <t>https://ghfast.top/https://raw.githubusercontent.com/xianyuyimu/TVBOX-/main/TVBox/%E4%B8%80%E6%9C%A8%E8%87%AA%E7%94%A8.json</t>
+  </si>
+  <si>
+    <t>https://www.ywsj.cf/upload/2023/10/yyzq4k.json</t>
+  </si>
+  <si>
+    <t>https://notabug.org/liuyun/H-2023/raw/master/%E7%90%89%E8%8A%B8.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/YuanHsing/freed/master/TVBox/meow.json</t>
+  </si>
+  <si>
+    <t>https://raw.githubusercontent.com/gaotianliuyun/gao/master/0825.json</t>
+  </si>
+  <si>
+    <t>https://gitee.com/yiwu369/6758/raw/master/%E9%9D%92%E9%BE%99/1.json</t>
+  </si>
+  <si>
+    <t>https://9xi4o.tk/0725.json</t>
+  </si>
+  <si>
+    <t>http://fmys.top/fmys.json</t>
+  </si>
+  <si>
+    <t>http://tv.nxog.top/m</t>
+  </si>
+  <si>
+    <t>https://ghfast.top/https://raw.githubusercontent.com/FongMi/CatVodSpider/main/json/demo.json</t>
+  </si>
+  <si>
+    <t>https://gitee.com/lukei7/lib/raw/Luck/%E8%87%AA%E5%BB%BA.json</t>
+  </si>
+  <si>
+    <t>https://ghproxy.net/https://raw.githubusercontent.com/xiaolinshao/linshao/main/18.json</t>
+  </si>
+  <si>
+    <t>https://tv.nxog.top/m/111.php</t>
+  </si>
+  <si>
+    <t>https://git.acwing.com/ocean2025/ocean/-/raw/main/api.json</t>
+  </si>
+  <si>
+    <t>http://xhztv.top/xhz/</t>
+  </si>
+  <si>
+    <t>https://ztha.top/TVBox/thdjk.json</t>
+  </si>
+  <si>
+    <t>http://www.mpanso.com/%E5%B0%8F%E7%B1%B3/DEMO.json</t>
+  </si>
+  <si>
+    <t>https://pandown.pro/tvbox/tvbox.json</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/supermeguo/BoxRes/main/Myuse/lemon.json</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/tianya7981/jiekou/main/0709</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/xmbjm/xmbjm/main/xmbjmdc.json</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/yyfxz/yyrh/main/fxz.json</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/ZTHA000/tvbox/main/gyck.json</t>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/txtvv/txtv/main/ku/心动仓库.txt</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://github.moeyy.xyz/https://raw.githubusercontent.com/txtvv/txtv/main/tvbox/cang.json</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -2839,10 +2931,14 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 主题">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2880,7 +2976,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2986,7 +3082,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -3128,7 +3224,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -11061,7 +11157,7 @@
   <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
@@ -11193,32 +11289,32 @@
       <c r="A16" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="B16" s="7" t="s">
-        <v>154</v>
+      <c r="B16" s="8" t="s">
+        <v>795</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>152</v>
+      <c r="B17" s="8" t="s">
+        <v>796</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>16</v>
+      <c r="B18" s="8" t="s">
+        <v>800</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" s="7" t="s">
         <v>323</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>15</v>
+      <c r="B19" s="8" t="s">
+        <v>801</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -11226,7 +11322,7 @@
         <v>308</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>211</v>
+        <v>797</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -11234,7 +11330,7 @@
         <v>68</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>209</v>
+        <v>798</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -11242,7 +11338,7 @@
         <v>56</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>207</v>
+        <v>799</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -11313,6 +11409,10 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" xr:uid="{7251A851-ABBA-4006-A17D-961BD6F4B512}"/>
+    <hyperlink ref="B16" r:id="rId2" display="https://mirror.ghproxy.com/https://raw.githubusercontent.com/supermeguo/BoxRes/main/Myuse/lemon.json" xr:uid="{D790651A-67D8-44A1-B624-7F3135794B7B}"/>
+    <hyperlink ref="B17" r:id="rId3" display="https://mirror.ghproxy.com/https://raw.githubusercontent.com/tianya7981/jiekou/main/0709" xr:uid="{79517AF1-1103-49E5-A314-66445827B8E8}"/>
+    <hyperlink ref="B18" r:id="rId4" xr:uid="{07E8FD66-00C3-4B18-93C6-7679CE360252}"/>
+    <hyperlink ref="B19" r:id="rId5" xr:uid="{47BBE089-D738-41A7-BABC-9423954FAA46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11320,27 +11420,206 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B089023-D8C8-422E-84A2-28EA668552F7}">
-  <dimension ref="D31:D32"/>
+  <dimension ref="B1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:D30"/>
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="4" max="4" width="89" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="89" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D31" s="7"/>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
-      <c r="D32" s="7"/>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B1" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B2" s="2" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B6" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B7" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B8" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B9" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B10" t="s">
+        <v>777</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B11" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="12" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B12" t="s">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="13" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B13" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B14" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B15" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B16" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B20" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B21" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B22" t="s">
+        <v>787</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B23" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B24" t="s">
+        <v>789</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B25" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B26" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B27" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B28" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B29" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B30" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B31" t="s">
+        <v>170</v>
+      </c>
+      <c r="E31" s="7"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B32" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" s="7"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B33" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B34" t="s">
+        <v>781</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B35" t="s">
+        <v>783</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.35">
+      <c r="B36" t="s">
+        <v>772</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" display="http://47.96.82.41:10/," xr:uid="{E96D7D01-0FB9-44F1-9313-1F7766F36360}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
